--- a/data_processing/transformations/templates/calibrated/uganda/model_input_variables_uganda_ip_calibrated.xlsx
+++ b/data_processing/transformations/templates/calibrated/uganda/model_input_variables_uganda_ip_calibrated.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="645" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="925" uniqueCount="252">
   <si>
     <t>subsector</t>
   </si>
@@ -45,6 +45,174 @@
   </si>
   <si>
     <t>min_55</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>37</t>
+  </si>
+  <si>
+    <t>38</t>
+  </si>
+  <si>
+    <t>39</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>41</t>
+  </si>
+  <si>
+    <t>42</t>
+  </si>
+  <si>
+    <t>43</t>
+  </si>
+  <si>
+    <t>44</t>
+  </si>
+  <si>
+    <t>45</t>
+  </si>
+  <si>
+    <t>46</t>
+  </si>
+  <si>
+    <t>47</t>
+  </si>
+  <si>
+    <t>48</t>
+  </si>
+  <si>
+    <t>49</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>51</t>
+  </si>
+  <si>
+    <t>52</t>
+  </si>
+  <si>
+    <t>53</t>
+  </si>
+  <si>
+    <t>54</t>
+  </si>
+  <si>
+    <t>55</t>
   </si>
   <si>
     <t>IPPU</t>
@@ -997,181 +1165,181 @@
       <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1">
-        <v>0</v>
-      </c>
-      <c r="K1" s="1">
-        <v>1</v>
-      </c>
-      <c r="L1" s="1">
-        <v>2</v>
-      </c>
-      <c r="M1" s="1">
-        <v>3</v>
-      </c>
-      <c r="N1" s="1">
-        <v>4</v>
-      </c>
-      <c r="O1" s="1">
-        <v>5</v>
-      </c>
-      <c r="P1" s="1">
-        <v>6</v>
-      </c>
-      <c r="Q1" s="1">
-        <v>7</v>
-      </c>
-      <c r="R1" s="1">
-        <v>8</v>
-      </c>
-      <c r="S1" s="1">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="T1" s="1">
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="U1" s="1">
+      <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="V1" s="1">
+      <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="W1" s="1">
+      <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="X1" s="1">
+      <c r="O1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="Y1" s="1">
+      <c r="P1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Z1" s="1">
+      <c r="Q1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="AA1" s="1">
+      <c r="R1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="AB1" s="1">
+      <c r="S1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="AC1" s="1">
+      <c r="T1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="AD1" s="1">
+      <c r="U1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="AE1" s="1">
+      <c r="V1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="AF1" s="1">
+      <c r="W1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="AG1" s="1">
+      <c r="X1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="AH1" s="1">
+      <c r="Y1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="AI1" s="1">
+      <c r="Z1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="AJ1" s="1">
+      <c r="AA1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="AK1" s="1">
+      <c r="AB1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="AL1" s="1">
+      <c r="AC1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="AM1" s="1">
+      <c r="AD1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="AN1" s="1">
+      <c r="AE1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="AO1" s="1">
+      <c r="AF1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="AP1" s="1">
+      <c r="AG1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="AQ1" s="1">
+      <c r="AH1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="AR1" s="1">
+      <c r="AI1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="AS1" s="1">
+      <c r="AJ1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="AT1" s="1">
+      <c r="AK1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="AU1" s="1">
+      <c r="AL1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="AV1" s="1">
+      <c r="AM1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="AW1" s="1">
+      <c r="AN1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="AX1" s="1">
+      <c r="AO1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="AY1" s="1">
+      <c r="AP1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="AZ1" s="1">
+      <c r="AQ1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="BA1" s="1">
+      <c r="AR1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="BB1" s="1">
+      <c r="AS1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="BC1" s="1">
+      <c r="AT1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="BD1" s="1">
+      <c r="AU1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="BE1" s="1">
+      <c r="AV1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="BF1" s="1">
+      <c r="AW1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="BG1" s="1">
+      <c r="AX1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="BH1" s="1">
+      <c r="AY1" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="BI1" s="1">
+      <c r="AZ1" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="BJ1" s="1">
+      <c r="BA1" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="BK1" s="1">
+      <c r="BB1" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="BL1" s="1">
+      <c r="BC1" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="BM1" s="1">
+      <c r="BD1" s="1" t="s">
         <v>55</v>
+      </c>
+      <c r="BE1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BF1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BG1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BH1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BI1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BJ1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BK1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BL1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BM1" s="1" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="2" spans="1:65">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>65</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>66</v>
       </c>
       <c r="H2">
         <v>1</v>
@@ -1350,10 +1518,10 @@
     </row>
     <row r="3" spans="1:65">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>65</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>67</v>
       </c>
       <c r="H3">
         <v>1</v>
@@ -1532,10 +1700,10 @@
     </row>
     <row r="4" spans="1:65">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>65</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>68</v>
       </c>
       <c r="H4">
         <v>1.5</v>
@@ -1714,10 +1882,10 @@
     </row>
     <row r="5" spans="1:65">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>65</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>69</v>
       </c>
       <c r="H5">
         <v>1.5</v>
@@ -1896,10 +2064,10 @@
     </row>
     <row r="6" spans="1:65">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>65</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>70</v>
       </c>
       <c r="H6">
         <v>1.5</v>
@@ -2078,10 +2246,10 @@
     </row>
     <row r="7" spans="1:65">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>65</v>
       </c>
       <c r="B7" t="s">
-        <v>15</v>
+        <v>71</v>
       </c>
       <c r="H7">
         <v>1.5</v>
@@ -2260,10 +2428,10 @@
     </row>
     <row r="8" spans="1:65">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>65</v>
       </c>
       <c r="B8" t="s">
-        <v>16</v>
+        <v>72</v>
       </c>
       <c r="H8">
         <v>1.5</v>
@@ -2442,10 +2610,10 @@
     </row>
     <row r="9" spans="1:65">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>65</v>
       </c>
       <c r="B9" t="s">
-        <v>17</v>
+        <v>73</v>
       </c>
       <c r="H9">
         <v>1.5</v>
@@ -2624,10 +2792,10 @@
     </row>
     <row r="10" spans="1:65">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>65</v>
       </c>
       <c r="B10" t="s">
-        <v>18</v>
+        <v>74</v>
       </c>
       <c r="H10">
         <v>1.5</v>
@@ -2806,10 +2974,10 @@
     </row>
     <row r="11" spans="1:65">
       <c r="A11" t="s">
-        <v>9</v>
+        <v>65</v>
       </c>
       <c r="B11" t="s">
-        <v>19</v>
+        <v>75</v>
       </c>
       <c r="H11">
         <v>1.5</v>
@@ -2988,10 +3156,10 @@
     </row>
     <row r="12" spans="1:65">
       <c r="A12" t="s">
-        <v>9</v>
+        <v>65</v>
       </c>
       <c r="B12" t="s">
-        <v>20</v>
+        <v>76</v>
       </c>
       <c r="H12">
         <v>1.5</v>
@@ -3170,10 +3338,10 @@
     </row>
     <row r="13" spans="1:65">
       <c r="A13" t="s">
-        <v>9</v>
+        <v>65</v>
       </c>
       <c r="B13" t="s">
-        <v>21</v>
+        <v>77</v>
       </c>
       <c r="H13">
         <v>1.5</v>
@@ -3352,10 +3520,10 @@
     </row>
     <row r="14" spans="1:65">
       <c r="A14" t="s">
-        <v>9</v>
+        <v>65</v>
       </c>
       <c r="B14" t="s">
-        <v>22</v>
+        <v>78</v>
       </c>
       <c r="H14">
         <v>1.5</v>
@@ -3534,10 +3702,10 @@
     </row>
     <row r="15" spans="1:65">
       <c r="A15" t="s">
-        <v>9</v>
+        <v>65</v>
       </c>
       <c r="B15" t="s">
-        <v>23</v>
+        <v>79</v>
       </c>
       <c r="H15">
         <v>1.5</v>
@@ -3716,10 +3884,10 @@
     </row>
     <row r="16" spans="1:65">
       <c r="A16" t="s">
-        <v>9</v>
+        <v>65</v>
       </c>
       <c r="B16" t="s">
-        <v>24</v>
+        <v>80</v>
       </c>
       <c r="H16">
         <v>1.5</v>
@@ -3898,10 +4066,10 @@
     </row>
     <row r="17" spans="1:65">
       <c r="A17" t="s">
-        <v>9</v>
+        <v>65</v>
       </c>
       <c r="B17" t="s">
-        <v>25</v>
+        <v>81</v>
       </c>
       <c r="H17">
         <v>1.5</v>
@@ -4080,10 +4248,10 @@
     </row>
     <row r="18" spans="1:65">
       <c r="A18" t="s">
-        <v>9</v>
+        <v>65</v>
       </c>
       <c r="B18" t="s">
-        <v>26</v>
+        <v>82</v>
       </c>
       <c r="H18">
         <v>1.5</v>
@@ -4262,10 +4430,10 @@
     </row>
     <row r="19" spans="1:65">
       <c r="A19" t="s">
-        <v>9</v>
+        <v>65</v>
       </c>
       <c r="B19" t="s">
-        <v>27</v>
+        <v>83</v>
       </c>
       <c r="H19">
         <v>1.5</v>
@@ -4444,10 +4612,10 @@
     </row>
     <row r="20" spans="1:65">
       <c r="A20" t="s">
-        <v>9</v>
+        <v>65</v>
       </c>
       <c r="B20" t="s">
-        <v>28</v>
+        <v>84</v>
       </c>
       <c r="H20">
         <v>1.5</v>
@@ -4626,10 +4794,10 @@
     </row>
     <row r="21" spans="1:65">
       <c r="A21" t="s">
-        <v>9</v>
+        <v>65</v>
       </c>
       <c r="B21" t="s">
-        <v>29</v>
+        <v>85</v>
       </c>
       <c r="H21">
         <v>1.5</v>
@@ -4808,10 +4976,10 @@
     </row>
     <row r="22" spans="1:65">
       <c r="A22" t="s">
-        <v>9</v>
+        <v>65</v>
       </c>
       <c r="B22" t="s">
-        <v>30</v>
+        <v>86</v>
       </c>
       <c r="H22">
         <v>1.5</v>
@@ -4990,10 +5158,10 @@
     </row>
     <row r="23" spans="1:65">
       <c r="A23" t="s">
-        <v>9</v>
+        <v>65</v>
       </c>
       <c r="B23" t="s">
-        <v>31</v>
+        <v>87</v>
       </c>
       <c r="H23">
         <v>1.5</v>
@@ -5172,10 +5340,10 @@
     </row>
     <row r="24" spans="1:65">
       <c r="A24" t="s">
-        <v>9</v>
+        <v>65</v>
       </c>
       <c r="B24" t="s">
-        <v>32</v>
+        <v>88</v>
       </c>
       <c r="H24">
         <v>1</v>
@@ -5354,10 +5522,10 @@
     </row>
     <row r="25" spans="1:65">
       <c r="A25" t="s">
-        <v>9</v>
+        <v>65</v>
       </c>
       <c r="B25" t="s">
-        <v>33</v>
+        <v>89</v>
       </c>
       <c r="H25">
         <v>1</v>
@@ -5536,10 +5704,10 @@
     </row>
     <row r="26" spans="1:65">
       <c r="A26" t="s">
-        <v>9</v>
+        <v>65</v>
       </c>
       <c r="B26" t="s">
-        <v>34</v>
+        <v>90</v>
       </c>
       <c r="H26">
         <v>1</v>
@@ -5718,10 +5886,10 @@
     </row>
     <row r="27" spans="1:65">
       <c r="A27" t="s">
-        <v>9</v>
+        <v>65</v>
       </c>
       <c r="B27" t="s">
-        <v>35</v>
+        <v>91</v>
       </c>
       <c r="H27">
         <v>1</v>
@@ -5900,10 +6068,10 @@
     </row>
     <row r="28" spans="1:65">
       <c r="A28" t="s">
-        <v>9</v>
+        <v>65</v>
       </c>
       <c r="B28" t="s">
-        <v>36</v>
+        <v>92</v>
       </c>
       <c r="H28">
         <v>1</v>
@@ -6082,10 +6250,10 @@
     </row>
     <row r="29" spans="1:65">
       <c r="A29" t="s">
-        <v>9</v>
+        <v>65</v>
       </c>
       <c r="B29" t="s">
-        <v>37</v>
+        <v>93</v>
       </c>
       <c r="H29">
         <v>1</v>
@@ -6264,10 +6432,10 @@
     </row>
     <row r="30" spans="1:65">
       <c r="A30" t="s">
-        <v>9</v>
+        <v>65</v>
       </c>
       <c r="B30" t="s">
-        <v>38</v>
+        <v>94</v>
       </c>
       <c r="H30">
         <v>1</v>
@@ -6446,10 +6614,10 @@
     </row>
     <row r="31" spans="1:65">
       <c r="A31" t="s">
-        <v>9</v>
+        <v>65</v>
       </c>
       <c r="B31" t="s">
-        <v>39</v>
+        <v>95</v>
       </c>
       <c r="H31">
         <v>1</v>
@@ -6628,10 +6796,10 @@
     </row>
     <row r="32" spans="1:65">
       <c r="A32" t="s">
-        <v>9</v>
+        <v>65</v>
       </c>
       <c r="B32" t="s">
-        <v>40</v>
+        <v>96</v>
       </c>
       <c r="H32">
         <v>1</v>
@@ -6810,10 +6978,10 @@
     </row>
     <row r="33" spans="1:65">
       <c r="A33" t="s">
-        <v>9</v>
+        <v>65</v>
       </c>
       <c r="B33" t="s">
-        <v>41</v>
+        <v>97</v>
       </c>
       <c r="H33">
         <v>1</v>
@@ -6992,10 +7160,10 @@
     </row>
     <row r="34" spans="1:65">
       <c r="A34" t="s">
-        <v>9</v>
+        <v>65</v>
       </c>
       <c r="B34" t="s">
-        <v>42</v>
+        <v>98</v>
       </c>
       <c r="H34">
         <v>1</v>
@@ -7174,10 +7342,10 @@
     </row>
     <row r="35" spans="1:65">
       <c r="A35" t="s">
-        <v>9</v>
+        <v>65</v>
       </c>
       <c r="B35" t="s">
-        <v>43</v>
+        <v>99</v>
       </c>
       <c r="H35">
         <v>1</v>
@@ -7356,10 +7524,10 @@
     </row>
     <row r="36" spans="1:65">
       <c r="A36" t="s">
-        <v>9</v>
+        <v>65</v>
       </c>
       <c r="B36" t="s">
-        <v>44</v>
+        <v>100</v>
       </c>
       <c r="H36">
         <v>1</v>
@@ -7538,10 +7706,10 @@
     </row>
     <row r="37" spans="1:65">
       <c r="A37" t="s">
-        <v>9</v>
+        <v>65</v>
       </c>
       <c r="B37" t="s">
-        <v>45</v>
+        <v>101</v>
       </c>
       <c r="H37">
         <v>1</v>
@@ -7720,10 +7888,10 @@
     </row>
     <row r="38" spans="1:65">
       <c r="A38" t="s">
-        <v>9</v>
+        <v>65</v>
       </c>
       <c r="B38" t="s">
-        <v>46</v>
+        <v>102</v>
       </c>
       <c r="H38">
         <v>1</v>
@@ -7902,10 +8070,10 @@
     </row>
     <row r="39" spans="1:65">
       <c r="A39" t="s">
-        <v>9</v>
+        <v>65</v>
       </c>
       <c r="B39" t="s">
-        <v>47</v>
+        <v>103</v>
       </c>
       <c r="H39">
         <v>1</v>
@@ -8084,10 +8252,10 @@
     </row>
     <row r="40" spans="1:65">
       <c r="A40" t="s">
-        <v>9</v>
+        <v>65</v>
       </c>
       <c r="B40" t="s">
-        <v>48</v>
+        <v>104</v>
       </c>
       <c r="H40">
         <v>1</v>
@@ -8266,10 +8434,10 @@
     </row>
     <row r="41" spans="1:65">
       <c r="A41" t="s">
-        <v>9</v>
+        <v>65</v>
       </c>
       <c r="B41" t="s">
-        <v>49</v>
+        <v>105</v>
       </c>
       <c r="H41">
         <v>1</v>
@@ -8448,10 +8616,10 @@
     </row>
     <row r="42" spans="1:65">
       <c r="A42" t="s">
-        <v>9</v>
+        <v>65</v>
       </c>
       <c r="B42" t="s">
-        <v>50</v>
+        <v>106</v>
       </c>
       <c r="H42">
         <v>1</v>
@@ -8630,10 +8798,10 @@
     </row>
     <row r="43" spans="1:65">
       <c r="A43" t="s">
-        <v>9</v>
+        <v>65</v>
       </c>
       <c r="B43" t="s">
-        <v>51</v>
+        <v>107</v>
       </c>
       <c r="H43">
         <v>1</v>
@@ -8812,10 +8980,10 @@
     </row>
     <row r="44" spans="1:65">
       <c r="A44" t="s">
-        <v>9</v>
+        <v>65</v>
       </c>
       <c r="B44" t="s">
-        <v>52</v>
+        <v>108</v>
       </c>
       <c r="H44">
         <v>1</v>
@@ -8994,10 +9162,10 @@
     </row>
     <row r="45" spans="1:65">
       <c r="A45" t="s">
-        <v>9</v>
+        <v>65</v>
       </c>
       <c r="B45" t="s">
-        <v>53</v>
+        <v>109</v>
       </c>
       <c r="H45">
         <v>1</v>
@@ -9176,10 +9344,10 @@
     </row>
     <row r="46" spans="1:65">
       <c r="A46" t="s">
-        <v>9</v>
+        <v>65</v>
       </c>
       <c r="B46" t="s">
-        <v>54</v>
+        <v>110</v>
       </c>
       <c r="H46">
         <v>1</v>
@@ -9358,10 +9526,10 @@
     </row>
     <row r="47" spans="1:65">
       <c r="A47" t="s">
-        <v>9</v>
+        <v>65</v>
       </c>
       <c r="B47" t="s">
-        <v>55</v>
+        <v>111</v>
       </c>
       <c r="H47">
         <v>1</v>
@@ -9540,10 +9708,10 @@
     </row>
     <row r="48" spans="1:65">
       <c r="A48" t="s">
-        <v>9</v>
+        <v>65</v>
       </c>
       <c r="B48" t="s">
-        <v>56</v>
+        <v>112</v>
       </c>
       <c r="H48">
         <v>1</v>
@@ -9722,10 +9890,10 @@
     </row>
     <row r="49" spans="1:65">
       <c r="A49" t="s">
-        <v>9</v>
+        <v>65</v>
       </c>
       <c r="B49" t="s">
-        <v>57</v>
+        <v>113</v>
       </c>
       <c r="H49">
         <v>1</v>
@@ -9904,10 +10072,10 @@
     </row>
     <row r="50" spans="1:65">
       <c r="A50" t="s">
-        <v>9</v>
+        <v>65</v>
       </c>
       <c r="B50" t="s">
-        <v>58</v>
+        <v>114</v>
       </c>
       <c r="H50">
         <v>1</v>
@@ -10086,10 +10254,10 @@
     </row>
     <row r="51" spans="1:65">
       <c r="A51" t="s">
-        <v>9</v>
+        <v>65</v>
       </c>
       <c r="B51" t="s">
-        <v>59</v>
+        <v>115</v>
       </c>
       <c r="H51">
         <v>1</v>
@@ -10268,10 +10436,10 @@
     </row>
     <row r="52" spans="1:65">
       <c r="A52" t="s">
-        <v>9</v>
+        <v>65</v>
       </c>
       <c r="B52" t="s">
-        <v>60</v>
+        <v>116</v>
       </c>
       <c r="H52">
         <v>1</v>
@@ -10450,10 +10618,10 @@
     </row>
     <row r="53" spans="1:65">
       <c r="A53" t="s">
-        <v>9</v>
+        <v>65</v>
       </c>
       <c r="B53" t="s">
-        <v>61</v>
+        <v>117</v>
       </c>
       <c r="H53">
         <v>1</v>
@@ -10632,10 +10800,10 @@
     </row>
     <row r="54" spans="1:65">
       <c r="A54" t="s">
-        <v>9</v>
+        <v>65</v>
       </c>
       <c r="B54" t="s">
-        <v>62</v>
+        <v>118</v>
       </c>
       <c r="H54">
         <v>1</v>
@@ -10814,10 +10982,10 @@
     </row>
     <row r="55" spans="1:65">
       <c r="A55" t="s">
-        <v>9</v>
+        <v>65</v>
       </c>
       <c r="B55" t="s">
-        <v>63</v>
+        <v>119</v>
       </c>
       <c r="H55">
         <v>1</v>
@@ -10996,10 +11164,10 @@
     </row>
     <row r="56" spans="1:65">
       <c r="A56" t="s">
-        <v>9</v>
+        <v>65</v>
       </c>
       <c r="B56" t="s">
-        <v>64</v>
+        <v>120</v>
       </c>
       <c r="H56">
         <v>1</v>
@@ -11178,10 +11346,10 @@
     </row>
     <row r="57" spans="1:65">
       <c r="A57" t="s">
-        <v>9</v>
+        <v>65</v>
       </c>
       <c r="B57" t="s">
-        <v>65</v>
+        <v>121</v>
       </c>
       <c r="H57">
         <v>1</v>
@@ -11360,10 +11528,10 @@
     </row>
     <row r="58" spans="1:65">
       <c r="A58" t="s">
-        <v>9</v>
+        <v>65</v>
       </c>
       <c r="B58" t="s">
-        <v>66</v>
+        <v>122</v>
       </c>
       <c r="H58">
         <v>1</v>
@@ -11542,10 +11710,10 @@
     </row>
     <row r="59" spans="1:65">
       <c r="A59" t="s">
-        <v>9</v>
+        <v>65</v>
       </c>
       <c r="B59" t="s">
-        <v>67</v>
+        <v>123</v>
       </c>
       <c r="H59">
         <v>1</v>
@@ -11724,10 +11892,10 @@
     </row>
     <row r="60" spans="1:65">
       <c r="A60" t="s">
-        <v>9</v>
+        <v>65</v>
       </c>
       <c r="B60" t="s">
-        <v>68</v>
+        <v>124</v>
       </c>
       <c r="H60">
         <v>1</v>
@@ -11906,10 +12074,10 @@
     </row>
     <row r="61" spans="1:65">
       <c r="A61" t="s">
-        <v>9</v>
+        <v>65</v>
       </c>
       <c r="B61" t="s">
-        <v>69</v>
+        <v>125</v>
       </c>
       <c r="H61">
         <v>1</v>
@@ -12088,10 +12256,10 @@
     </row>
     <row r="62" spans="1:65">
       <c r="A62" t="s">
-        <v>9</v>
+        <v>65</v>
       </c>
       <c r="B62" t="s">
-        <v>70</v>
+        <v>126</v>
       </c>
       <c r="H62">
         <v>1</v>
@@ -12270,10 +12438,10 @@
     </row>
     <row r="63" spans="1:65">
       <c r="A63" t="s">
-        <v>9</v>
+        <v>65</v>
       </c>
       <c r="B63" t="s">
-        <v>71</v>
+        <v>127</v>
       </c>
       <c r="H63">
         <v>1</v>
@@ -12452,10 +12620,10 @@
     </row>
     <row r="64" spans="1:65">
       <c r="A64" t="s">
-        <v>9</v>
+        <v>65</v>
       </c>
       <c r="B64" t="s">
-        <v>72</v>
+        <v>128</v>
       </c>
       <c r="H64">
         <v>1</v>
@@ -12634,10 +12802,10 @@
     </row>
     <row r="65" spans="1:65">
       <c r="A65" t="s">
-        <v>9</v>
+        <v>65</v>
       </c>
       <c r="B65" t="s">
-        <v>73</v>
+        <v>129</v>
       </c>
       <c r="H65">
         <v>1</v>
@@ -12816,10 +12984,10 @@
     </row>
     <row r="66" spans="1:65">
       <c r="A66" t="s">
-        <v>9</v>
+        <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>74</v>
+        <v>130</v>
       </c>
       <c r="H66">
         <v>1</v>
@@ -12998,10 +13166,10 @@
     </row>
     <row r="67" spans="1:65">
       <c r="A67" t="s">
-        <v>9</v>
+        <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>75</v>
+        <v>131</v>
       </c>
       <c r="H67">
         <v>1</v>
@@ -13180,10 +13348,10 @@
     </row>
     <row r="68" spans="1:65">
       <c r="A68" t="s">
-        <v>9</v>
+        <v>65</v>
       </c>
       <c r="B68" t="s">
-        <v>76</v>
+        <v>132</v>
       </c>
       <c r="H68">
         <v>1</v>
@@ -13362,10 +13530,10 @@
     </row>
     <row r="69" spans="1:65">
       <c r="A69" t="s">
-        <v>9</v>
+        <v>65</v>
       </c>
       <c r="B69" t="s">
-        <v>77</v>
+        <v>133</v>
       </c>
       <c r="H69">
         <v>1</v>
@@ -13544,10 +13712,10 @@
     </row>
     <row r="70" spans="1:65">
       <c r="A70" t="s">
-        <v>9</v>
+        <v>65</v>
       </c>
       <c r="B70" t="s">
-        <v>78</v>
+        <v>134</v>
       </c>
       <c r="H70">
         <v>1</v>
@@ -13726,10 +13894,10 @@
     </row>
     <row r="71" spans="1:65">
       <c r="A71" t="s">
-        <v>9</v>
+        <v>65</v>
       </c>
       <c r="B71" t="s">
-        <v>79</v>
+        <v>135</v>
       </c>
       <c r="H71">
         <v>1</v>
@@ -13908,10 +14076,10 @@
     </row>
     <row r="72" spans="1:65">
       <c r="A72" t="s">
-        <v>9</v>
+        <v>65</v>
       </c>
       <c r="B72" t="s">
-        <v>80</v>
+        <v>136</v>
       </c>
       <c r="H72">
         <v>1</v>
@@ -14090,10 +14258,10 @@
     </row>
     <row r="73" spans="1:65">
       <c r="A73" t="s">
-        <v>9</v>
+        <v>65</v>
       </c>
       <c r="B73" t="s">
-        <v>81</v>
+        <v>137</v>
       </c>
       <c r="H73">
         <v>1</v>
@@ -14272,10 +14440,10 @@
     </row>
     <row r="74" spans="1:65">
       <c r="A74" t="s">
-        <v>9</v>
+        <v>65</v>
       </c>
       <c r="B74" t="s">
-        <v>82</v>
+        <v>138</v>
       </c>
       <c r="H74">
         <v>1</v>
@@ -14454,10 +14622,10 @@
     </row>
     <row r="75" spans="1:65">
       <c r="A75" t="s">
-        <v>9</v>
+        <v>65</v>
       </c>
       <c r="B75" t="s">
-        <v>83</v>
+        <v>139</v>
       </c>
       <c r="H75">
         <v>1</v>
@@ -14636,10 +14804,10 @@
     </row>
     <row r="76" spans="1:65">
       <c r="A76" t="s">
-        <v>9</v>
+        <v>65</v>
       </c>
       <c r="B76" t="s">
-        <v>84</v>
+        <v>140</v>
       </c>
       <c r="H76">
         <v>1</v>
@@ -14818,10 +14986,10 @@
     </row>
     <row r="77" spans="1:65">
       <c r="A77" t="s">
-        <v>9</v>
+        <v>65</v>
       </c>
       <c r="B77" t="s">
-        <v>85</v>
+        <v>141</v>
       </c>
       <c r="H77">
         <v>1</v>
@@ -15000,10 +15168,10 @@
     </row>
     <row r="78" spans="1:65">
       <c r="A78" t="s">
-        <v>9</v>
+        <v>65</v>
       </c>
       <c r="B78" t="s">
-        <v>86</v>
+        <v>142</v>
       </c>
       <c r="H78">
         <v>1</v>
@@ -15182,10 +15350,10 @@
     </row>
     <row r="79" spans="1:65">
       <c r="A79" t="s">
-        <v>9</v>
+        <v>65</v>
       </c>
       <c r="B79" t="s">
-        <v>87</v>
+        <v>143</v>
       </c>
       <c r="H79">
         <v>1</v>
@@ -15364,10 +15532,10 @@
     </row>
     <row r="80" spans="1:65">
       <c r="A80" t="s">
-        <v>9</v>
+        <v>65</v>
       </c>
       <c r="B80" t="s">
-        <v>88</v>
+        <v>144</v>
       </c>
       <c r="H80">
         <v>1</v>
@@ -15546,10 +15714,10 @@
     </row>
     <row r="81" spans="1:65">
       <c r="A81" t="s">
-        <v>9</v>
+        <v>65</v>
       </c>
       <c r="B81" t="s">
-        <v>89</v>
+        <v>145</v>
       </c>
       <c r="H81">
         <v>1</v>
@@ -15728,10 +15896,10 @@
     </row>
     <row r="82" spans="1:65">
       <c r="A82" t="s">
-        <v>9</v>
+        <v>65</v>
       </c>
       <c r="B82" t="s">
-        <v>90</v>
+        <v>146</v>
       </c>
       <c r="H82">
         <v>1</v>
@@ -15910,10 +16078,10 @@
     </row>
     <row r="83" spans="1:65">
       <c r="A83" t="s">
-        <v>9</v>
+        <v>65</v>
       </c>
       <c r="B83" t="s">
-        <v>91</v>
+        <v>147</v>
       </c>
       <c r="H83">
         <v>1</v>
@@ -16092,10 +16260,10 @@
     </row>
     <row r="84" spans="1:65">
       <c r="A84" t="s">
-        <v>9</v>
+        <v>65</v>
       </c>
       <c r="B84" t="s">
-        <v>92</v>
+        <v>148</v>
       </c>
       <c r="H84">
         <v>1</v>
@@ -16274,10 +16442,10 @@
     </row>
     <row r="85" spans="1:65">
       <c r="A85" t="s">
-        <v>9</v>
+        <v>65</v>
       </c>
       <c r="B85" t="s">
-        <v>93</v>
+        <v>149</v>
       </c>
       <c r="H85">
         <v>1</v>
@@ -16456,10 +16624,10 @@
     </row>
     <row r="86" spans="1:65">
       <c r="A86" t="s">
-        <v>9</v>
+        <v>65</v>
       </c>
       <c r="B86" t="s">
-        <v>94</v>
+        <v>150</v>
       </c>
       <c r="H86">
         <v>1</v>
@@ -16638,10 +16806,10 @@
     </row>
     <row r="87" spans="1:65">
       <c r="A87" t="s">
-        <v>9</v>
+        <v>65</v>
       </c>
       <c r="B87" t="s">
-        <v>95</v>
+        <v>151</v>
       </c>
       <c r="H87">
         <v>1</v>
@@ -16820,10 +16988,10 @@
     </row>
     <row r="88" spans="1:65">
       <c r="A88" t="s">
-        <v>9</v>
+        <v>65</v>
       </c>
       <c r="B88" t="s">
-        <v>96</v>
+        <v>152</v>
       </c>
       <c r="H88">
         <v>1</v>
@@ -17002,10 +17170,10 @@
     </row>
     <row r="89" spans="1:65">
       <c r="A89" t="s">
-        <v>9</v>
+        <v>65</v>
       </c>
       <c r="B89" t="s">
-        <v>97</v>
+        <v>153</v>
       </c>
       <c r="H89">
         <v>1</v>
@@ -17184,10 +17352,10 @@
     </row>
     <row r="90" spans="1:65">
       <c r="A90" t="s">
-        <v>9</v>
+        <v>65</v>
       </c>
       <c r="B90" t="s">
-        <v>98</v>
+        <v>154</v>
       </c>
       <c r="H90">
         <v>1</v>
@@ -17366,10 +17534,10 @@
     </row>
     <row r="91" spans="1:65">
       <c r="A91" t="s">
-        <v>9</v>
+        <v>65</v>
       </c>
       <c r="B91" t="s">
-        <v>99</v>
+        <v>155</v>
       </c>
       <c r="H91">
         <v>1</v>
@@ -17548,10 +17716,10 @@
     </row>
     <row r="92" spans="1:65">
       <c r="A92" t="s">
-        <v>9</v>
+        <v>65</v>
       </c>
       <c r="B92" t="s">
-        <v>100</v>
+        <v>156</v>
       </c>
       <c r="H92">
         <v>1</v>
@@ -17730,10 +17898,10 @@
     </row>
     <row r="93" spans="1:65">
       <c r="A93" t="s">
-        <v>9</v>
+        <v>65</v>
       </c>
       <c r="B93" t="s">
-        <v>101</v>
+        <v>157</v>
       </c>
       <c r="H93">
         <v>1</v>
@@ -17912,10 +18080,10 @@
     </row>
     <row r="94" spans="1:65">
       <c r="A94" t="s">
-        <v>9</v>
+        <v>65</v>
       </c>
       <c r="B94" t="s">
-        <v>102</v>
+        <v>158</v>
       </c>
       <c r="H94">
         <v>1</v>
@@ -18094,10 +18262,10 @@
     </row>
     <row r="95" spans="1:65">
       <c r="A95" t="s">
-        <v>9</v>
+        <v>65</v>
       </c>
       <c r="B95" t="s">
-        <v>103</v>
+        <v>159</v>
       </c>
       <c r="H95">
         <v>1</v>
@@ -18276,10 +18444,10 @@
     </row>
     <row r="96" spans="1:65">
       <c r="A96" t="s">
-        <v>9</v>
+        <v>65</v>
       </c>
       <c r="B96" t="s">
-        <v>104</v>
+        <v>160</v>
       </c>
       <c r="H96">
         <v>1</v>
@@ -18458,10 +18626,10 @@
     </row>
     <row r="97" spans="1:65">
       <c r="A97" t="s">
-        <v>9</v>
+        <v>65</v>
       </c>
       <c r="B97" t="s">
-        <v>105</v>
+        <v>161</v>
       </c>
       <c r="H97">
         <v>1</v>
@@ -18640,10 +18808,10 @@
     </row>
     <row r="98" spans="1:65">
       <c r="A98" t="s">
-        <v>9</v>
+        <v>65</v>
       </c>
       <c r="B98" t="s">
-        <v>106</v>
+        <v>162</v>
       </c>
       <c r="H98">
         <v>1</v>
@@ -18822,10 +18990,10 @@
     </row>
     <row r="99" spans="1:65">
       <c r="A99" t="s">
-        <v>9</v>
+        <v>65</v>
       </c>
       <c r="B99" t="s">
-        <v>107</v>
+        <v>163</v>
       </c>
       <c r="H99">
         <v>1</v>
@@ -19004,10 +19172,10 @@
     </row>
     <row r="100" spans="1:65">
       <c r="A100" t="s">
-        <v>9</v>
+        <v>65</v>
       </c>
       <c r="B100" t="s">
-        <v>108</v>
+        <v>164</v>
       </c>
       <c r="H100">
         <v>1</v>
@@ -19186,10 +19354,10 @@
     </row>
     <row r="101" spans="1:65">
       <c r="A101" t="s">
-        <v>9</v>
+        <v>65</v>
       </c>
       <c r="B101" t="s">
-        <v>109</v>
+        <v>165</v>
       </c>
       <c r="H101">
         <v>1</v>
@@ -19368,10 +19536,10 @@
     </row>
     <row r="102" spans="1:65">
       <c r="A102" t="s">
-        <v>9</v>
+        <v>65</v>
       </c>
       <c r="B102" t="s">
-        <v>110</v>
+        <v>166</v>
       </c>
       <c r="H102">
         <v>1</v>
@@ -19550,10 +19718,10 @@
     </row>
     <row r="103" spans="1:65">
       <c r="A103" t="s">
-        <v>9</v>
+        <v>65</v>
       </c>
       <c r="B103" t="s">
-        <v>111</v>
+        <v>167</v>
       </c>
       <c r="H103">
         <v>1</v>
@@ -19732,10 +19900,10 @@
     </row>
     <row r="104" spans="1:65">
       <c r="A104" t="s">
-        <v>9</v>
+        <v>65</v>
       </c>
       <c r="B104" t="s">
-        <v>112</v>
+        <v>168</v>
       </c>
       <c r="H104">
         <v>1</v>
@@ -19914,10 +20082,10 @@
     </row>
     <row r="105" spans="1:65">
       <c r="A105" t="s">
-        <v>9</v>
+        <v>65</v>
       </c>
       <c r="B105" t="s">
-        <v>113</v>
+        <v>169</v>
       </c>
       <c r="H105">
         <v>1</v>
@@ -20096,10 +20264,10 @@
     </row>
     <row r="106" spans="1:65">
       <c r="A106" t="s">
-        <v>9</v>
+        <v>65</v>
       </c>
       <c r="B106" t="s">
-        <v>114</v>
+        <v>170</v>
       </c>
       <c r="H106">
         <v>1</v>
@@ -20278,10 +20446,10 @@
     </row>
     <row r="107" spans="1:65">
       <c r="A107" t="s">
-        <v>9</v>
+        <v>65</v>
       </c>
       <c r="B107" t="s">
-        <v>115</v>
+        <v>171</v>
       </c>
       <c r="H107">
         <v>1</v>
@@ -20460,10 +20628,10 @@
     </row>
     <row r="108" spans="1:65">
       <c r="A108" t="s">
-        <v>9</v>
+        <v>65</v>
       </c>
       <c r="B108" t="s">
-        <v>116</v>
+        <v>172</v>
       </c>
       <c r="H108">
         <v>1</v>
@@ -20642,10 +20810,10 @@
     </row>
     <row r="109" spans="1:65">
       <c r="A109" t="s">
-        <v>9</v>
+        <v>65</v>
       </c>
       <c r="B109" t="s">
-        <v>117</v>
+        <v>173</v>
       </c>
       <c r="H109">
         <v>1</v>
@@ -20824,10 +20992,10 @@
     </row>
     <row r="110" spans="1:65">
       <c r="A110" t="s">
-        <v>9</v>
+        <v>65</v>
       </c>
       <c r="B110" t="s">
-        <v>118</v>
+        <v>174</v>
       </c>
       <c r="H110">
         <v>1</v>
@@ -21006,10 +21174,10 @@
     </row>
     <row r="111" spans="1:65">
       <c r="A111" t="s">
-        <v>9</v>
+        <v>65</v>
       </c>
       <c r="B111" t="s">
-        <v>119</v>
+        <v>175</v>
       </c>
       <c r="H111">
         <v>1</v>
@@ -21188,10 +21356,10 @@
     </row>
     <row r="112" spans="1:65">
       <c r="A112" t="s">
-        <v>9</v>
+        <v>65</v>
       </c>
       <c r="B112" t="s">
-        <v>120</v>
+        <v>176</v>
       </c>
       <c r="H112">
         <v>1</v>
@@ -21370,10 +21538,10 @@
     </row>
     <row r="113" spans="1:65">
       <c r="A113" t="s">
-        <v>9</v>
+        <v>65</v>
       </c>
       <c r="B113" t="s">
-        <v>121</v>
+        <v>177</v>
       </c>
       <c r="H113">
         <v>1</v>
@@ -21552,10 +21720,10 @@
     </row>
     <row r="114" spans="1:65">
       <c r="A114" t="s">
-        <v>9</v>
+        <v>65</v>
       </c>
       <c r="B114" t="s">
-        <v>122</v>
+        <v>178</v>
       </c>
       <c r="H114">
         <v>1</v>
@@ -21734,10 +21902,10 @@
     </row>
     <row r="115" spans="1:65">
       <c r="A115" t="s">
-        <v>9</v>
+        <v>65</v>
       </c>
       <c r="B115" t="s">
-        <v>123</v>
+        <v>179</v>
       </c>
       <c r="H115">
         <v>1</v>
@@ -21916,10 +22084,10 @@
     </row>
     <row r="116" spans="1:65">
       <c r="A116" t="s">
-        <v>9</v>
+        <v>65</v>
       </c>
       <c r="B116" t="s">
-        <v>124</v>
+        <v>180</v>
       </c>
       <c r="H116">
         <v>1</v>
@@ -22098,10 +22266,10 @@
     </row>
     <row r="117" spans="1:65">
       <c r="A117" t="s">
-        <v>9</v>
+        <v>65</v>
       </c>
       <c r="B117" t="s">
-        <v>125</v>
+        <v>181</v>
       </c>
       <c r="H117">
         <v>1</v>
@@ -22280,10 +22448,10 @@
     </row>
     <row r="118" spans="1:65">
       <c r="A118" t="s">
-        <v>9</v>
+        <v>65</v>
       </c>
       <c r="B118" t="s">
-        <v>126</v>
+        <v>182</v>
       </c>
       <c r="H118">
         <v>1</v>
@@ -22462,10 +22630,10 @@
     </row>
     <row r="119" spans="1:65">
       <c r="A119" t="s">
-        <v>9</v>
+        <v>65</v>
       </c>
       <c r="B119" t="s">
-        <v>127</v>
+        <v>183</v>
       </c>
       <c r="H119">
         <v>1</v>
@@ -22644,10 +22812,10 @@
     </row>
     <row r="120" spans="1:65">
       <c r="A120" t="s">
-        <v>9</v>
+        <v>65</v>
       </c>
       <c r="B120" t="s">
-        <v>128</v>
+        <v>184</v>
       </c>
       <c r="H120">
         <v>1</v>
@@ -22826,10 +22994,10 @@
     </row>
     <row r="121" spans="1:65">
       <c r="A121" t="s">
-        <v>9</v>
+        <v>65</v>
       </c>
       <c r="B121" t="s">
-        <v>129</v>
+        <v>185</v>
       </c>
       <c r="H121">
         <v>1</v>
@@ -23008,10 +23176,10 @@
     </row>
     <row r="122" spans="1:65">
       <c r="A122" t="s">
-        <v>9</v>
+        <v>65</v>
       </c>
       <c r="B122" t="s">
-        <v>130</v>
+        <v>186</v>
       </c>
       <c r="H122">
         <v>1</v>
@@ -23190,10 +23358,10 @@
     </row>
     <row r="123" spans="1:65">
       <c r="A123" t="s">
-        <v>9</v>
+        <v>65</v>
       </c>
       <c r="B123" t="s">
-        <v>131</v>
+        <v>187</v>
       </c>
       <c r="H123">
         <v>1</v>
@@ -23372,10 +23540,10 @@
     </row>
     <row r="124" spans="1:65">
       <c r="A124" t="s">
-        <v>9</v>
+        <v>65</v>
       </c>
       <c r="B124" t="s">
-        <v>132</v>
+        <v>188</v>
       </c>
       <c r="H124">
         <v>1</v>
@@ -23554,10 +23722,10 @@
     </row>
     <row r="125" spans="1:65">
       <c r="A125" t="s">
-        <v>9</v>
+        <v>65</v>
       </c>
       <c r="B125" t="s">
-        <v>133</v>
+        <v>189</v>
       </c>
       <c r="H125">
         <v>1</v>
@@ -23736,10 +23904,10 @@
     </row>
     <row r="126" spans="1:65">
       <c r="A126" t="s">
-        <v>9</v>
+        <v>65</v>
       </c>
       <c r="B126" t="s">
-        <v>134</v>
+        <v>190</v>
       </c>
       <c r="H126">
         <v>1</v>
@@ -23918,10 +24086,10 @@
     </row>
     <row r="127" spans="1:65">
       <c r="A127" t="s">
-        <v>9</v>
+        <v>65</v>
       </c>
       <c r="B127" t="s">
-        <v>135</v>
+        <v>191</v>
       </c>
       <c r="H127">
         <v>1</v>
@@ -24100,10 +24268,10 @@
     </row>
     <row r="128" spans="1:65">
       <c r="A128" t="s">
-        <v>9</v>
+        <v>65</v>
       </c>
       <c r="B128" t="s">
-        <v>136</v>
+        <v>192</v>
       </c>
       <c r="H128">
         <v>1</v>
@@ -24282,10 +24450,10 @@
     </row>
     <row r="129" spans="1:65">
       <c r="A129" t="s">
-        <v>9</v>
+        <v>65</v>
       </c>
       <c r="B129" t="s">
-        <v>137</v>
+        <v>193</v>
       </c>
       <c r="H129">
         <v>1</v>
@@ -24464,10 +24632,10 @@
     </row>
     <row r="130" spans="1:65">
       <c r="A130" t="s">
-        <v>9</v>
+        <v>65</v>
       </c>
       <c r="B130" t="s">
-        <v>138</v>
+        <v>194</v>
       </c>
       <c r="H130">
         <v>1</v>
@@ -24646,10 +24814,10 @@
     </row>
     <row r="131" spans="1:65">
       <c r="A131" t="s">
-        <v>9</v>
+        <v>65</v>
       </c>
       <c r="B131" t="s">
-        <v>139</v>
+        <v>195</v>
       </c>
       <c r="H131">
         <v>1</v>
@@ -24828,10 +24996,10 @@
     </row>
     <row r="132" spans="1:65">
       <c r="A132" t="s">
-        <v>9</v>
+        <v>65</v>
       </c>
       <c r="B132" t="s">
-        <v>140</v>
+        <v>196</v>
       </c>
       <c r="H132">
         <v>1</v>
@@ -25010,10 +25178,10 @@
     </row>
     <row r="133" spans="1:65">
       <c r="A133" t="s">
-        <v>9</v>
+        <v>65</v>
       </c>
       <c r="B133" t="s">
-        <v>141</v>
+        <v>197</v>
       </c>
       <c r="H133">
         <v>1</v>
@@ -25192,10 +25360,10 @@
     </row>
     <row r="134" spans="1:65">
       <c r="A134" t="s">
-        <v>9</v>
+        <v>65</v>
       </c>
       <c r="B134" t="s">
-        <v>142</v>
+        <v>198</v>
       </c>
       <c r="H134">
         <v>1</v>
@@ -25374,10 +25542,10 @@
     </row>
     <row r="135" spans="1:65">
       <c r="A135" t="s">
-        <v>9</v>
+        <v>65</v>
       </c>
       <c r="B135" t="s">
-        <v>143</v>
+        <v>199</v>
       </c>
       <c r="H135">
         <v>1</v>
@@ -25556,10 +25724,10 @@
     </row>
     <row r="136" spans="1:65">
       <c r="A136" t="s">
-        <v>9</v>
+        <v>65</v>
       </c>
       <c r="B136" t="s">
-        <v>144</v>
+        <v>200</v>
       </c>
       <c r="H136">
         <v>1</v>
@@ -25738,10 +25906,10 @@
     </row>
     <row r="137" spans="1:65">
       <c r="A137" t="s">
-        <v>9</v>
+        <v>65</v>
       </c>
       <c r="B137" t="s">
-        <v>145</v>
+        <v>201</v>
       </c>
       <c r="H137">
         <v>1</v>
@@ -25920,10 +26088,10 @@
     </row>
     <row r="138" spans="1:65">
       <c r="A138" t="s">
-        <v>9</v>
+        <v>65</v>
       </c>
       <c r="B138" t="s">
-        <v>146</v>
+        <v>202</v>
       </c>
       <c r="H138">
         <v>1</v>
@@ -26102,10 +26270,10 @@
     </row>
     <row r="139" spans="1:65">
       <c r="A139" t="s">
-        <v>9</v>
+        <v>65</v>
       </c>
       <c r="B139" t="s">
-        <v>147</v>
+        <v>203</v>
       </c>
       <c r="H139">
         <v>1</v>
@@ -26284,10 +26452,10 @@
     </row>
     <row r="140" spans="1:65">
       <c r="A140" t="s">
-        <v>9</v>
+        <v>65</v>
       </c>
       <c r="B140" t="s">
-        <v>148</v>
+        <v>204</v>
       </c>
       <c r="H140">
         <v>1</v>
@@ -26466,10 +26634,10 @@
     </row>
     <row r="141" spans="1:65">
       <c r="A141" t="s">
-        <v>9</v>
+        <v>65</v>
       </c>
       <c r="B141" t="s">
-        <v>149</v>
+        <v>205</v>
       </c>
       <c r="H141">
         <v>1</v>
@@ -26648,10 +26816,10 @@
     </row>
     <row r="142" spans="1:65">
       <c r="A142" t="s">
-        <v>9</v>
+        <v>65</v>
       </c>
       <c r="B142" t="s">
-        <v>150</v>
+        <v>206</v>
       </c>
       <c r="H142">
         <v>1</v>
@@ -26830,10 +26998,10 @@
     </row>
     <row r="143" spans="1:65">
       <c r="A143" t="s">
-        <v>9</v>
+        <v>65</v>
       </c>
       <c r="B143" t="s">
-        <v>151</v>
+        <v>207</v>
       </c>
       <c r="H143">
         <v>1</v>
@@ -27012,10 +27180,10 @@
     </row>
     <row r="144" spans="1:65">
       <c r="A144" t="s">
-        <v>9</v>
+        <v>65</v>
       </c>
       <c r="B144" t="s">
-        <v>152</v>
+        <v>208</v>
       </c>
       <c r="H144">
         <v>1</v>
@@ -27194,10 +27362,10 @@
     </row>
     <row r="145" spans="1:65">
       <c r="A145" t="s">
-        <v>9</v>
+        <v>65</v>
       </c>
       <c r="B145" t="s">
-        <v>153</v>
+        <v>209</v>
       </c>
       <c r="H145">
         <v>1</v>
@@ -27376,10 +27544,10 @@
     </row>
     <row r="146" spans="1:65">
       <c r="A146" t="s">
-        <v>9</v>
+        <v>65</v>
       </c>
       <c r="B146" t="s">
-        <v>154</v>
+        <v>210</v>
       </c>
       <c r="H146">
         <v>1</v>
@@ -27558,10 +27726,10 @@
     </row>
     <row r="147" spans="1:65">
       <c r="A147" t="s">
-        <v>9</v>
+        <v>65</v>
       </c>
       <c r="B147" t="s">
-        <v>155</v>
+        <v>211</v>
       </c>
       <c r="H147">
         <v>1</v>
@@ -27740,10 +27908,10 @@
     </row>
     <row r="148" spans="1:65">
       <c r="A148" t="s">
-        <v>9</v>
+        <v>65</v>
       </c>
       <c r="B148" t="s">
-        <v>156</v>
+        <v>212</v>
       </c>
       <c r="H148">
         <v>1</v>
@@ -27922,10 +28090,10 @@
     </row>
     <row r="149" spans="1:65">
       <c r="A149" t="s">
-        <v>9</v>
+        <v>65</v>
       </c>
       <c r="B149" t="s">
-        <v>157</v>
+        <v>213</v>
       </c>
       <c r="H149">
         <v>1</v>
@@ -28104,10 +28272,10 @@
     </row>
     <row r="150" spans="1:65">
       <c r="A150" t="s">
-        <v>9</v>
+        <v>65</v>
       </c>
       <c r="B150" t="s">
-        <v>158</v>
+        <v>214</v>
       </c>
       <c r="H150">
         <v>1</v>
@@ -28286,10 +28454,10 @@
     </row>
     <row r="151" spans="1:65">
       <c r="A151" t="s">
-        <v>9</v>
+        <v>65</v>
       </c>
       <c r="B151" t="s">
-        <v>159</v>
+        <v>215</v>
       </c>
       <c r="H151">
         <v>1</v>
@@ -28468,10 +28636,10 @@
     </row>
     <row r="152" spans="1:65">
       <c r="A152" t="s">
-        <v>9</v>
+        <v>65</v>
       </c>
       <c r="B152" t="s">
-        <v>160</v>
+        <v>216</v>
       </c>
       <c r="H152">
         <v>1</v>
@@ -28650,10 +28818,10 @@
     </row>
     <row r="153" spans="1:65">
       <c r="A153" t="s">
-        <v>9</v>
+        <v>65</v>
       </c>
       <c r="B153" t="s">
-        <v>161</v>
+        <v>217</v>
       </c>
       <c r="H153">
         <v>1</v>
@@ -28832,10 +29000,10 @@
     </row>
     <row r="154" spans="1:65">
       <c r="A154" t="s">
-        <v>9</v>
+        <v>65</v>
       </c>
       <c r="B154" t="s">
-        <v>162</v>
+        <v>218</v>
       </c>
       <c r="H154">
         <v>1</v>
@@ -29014,10 +29182,10 @@
     </row>
     <row r="155" spans="1:65">
       <c r="A155" t="s">
-        <v>9</v>
+        <v>65</v>
       </c>
       <c r="B155" t="s">
-        <v>163</v>
+        <v>219</v>
       </c>
       <c r="H155">
         <v>1</v>
@@ -29196,10 +29364,10 @@
     </row>
     <row r="156" spans="1:65">
       <c r="A156" t="s">
-        <v>9</v>
+        <v>65</v>
       </c>
       <c r="B156" t="s">
-        <v>164</v>
+        <v>220</v>
       </c>
       <c r="H156">
         <v>1</v>
@@ -29378,10 +29546,10 @@
     </row>
     <row r="157" spans="1:65">
       <c r="A157" t="s">
-        <v>9</v>
+        <v>65</v>
       </c>
       <c r="B157" t="s">
-        <v>165</v>
+        <v>221</v>
       </c>
       <c r="H157">
         <v>1</v>
@@ -29560,10 +29728,10 @@
     </row>
     <row r="158" spans="1:65">
       <c r="A158" t="s">
-        <v>9</v>
+        <v>65</v>
       </c>
       <c r="B158" t="s">
-        <v>166</v>
+        <v>222</v>
       </c>
       <c r="H158">
         <v>1</v>
@@ -29742,10 +29910,10 @@
     </row>
     <row r="159" spans="1:65">
       <c r="A159" t="s">
-        <v>9</v>
+        <v>65</v>
       </c>
       <c r="B159" t="s">
-        <v>167</v>
+        <v>223</v>
       </c>
       <c r="H159">
         <v>1</v>
@@ -29924,10 +30092,10 @@
     </row>
     <row r="160" spans="1:65">
       <c r="A160" t="s">
-        <v>9</v>
+        <v>65</v>
       </c>
       <c r="B160" t="s">
-        <v>168</v>
+        <v>224</v>
       </c>
       <c r="H160">
         <v>1</v>
@@ -30106,10 +30274,10 @@
     </row>
     <row r="161" spans="1:65">
       <c r="A161" t="s">
-        <v>9</v>
+        <v>65</v>
       </c>
       <c r="B161" t="s">
-        <v>169</v>
+        <v>225</v>
       </c>
       <c r="H161">
         <v>1</v>
@@ -30288,10 +30456,10 @@
     </row>
     <row r="162" spans="1:65">
       <c r="A162" t="s">
-        <v>9</v>
+        <v>65</v>
       </c>
       <c r="B162" t="s">
-        <v>170</v>
+        <v>226</v>
       </c>
       <c r="H162">
         <v>1</v>
@@ -30470,10 +30638,10 @@
     </row>
     <row r="163" spans="1:65">
       <c r="A163" t="s">
-        <v>9</v>
+        <v>65</v>
       </c>
       <c r="B163" t="s">
-        <v>171</v>
+        <v>227</v>
       </c>
       <c r="H163">
         <v>1</v>
@@ -30652,10 +30820,10 @@
     </row>
     <row r="164" spans="1:65">
       <c r="A164" t="s">
-        <v>9</v>
+        <v>65</v>
       </c>
       <c r="B164" t="s">
-        <v>172</v>
+        <v>228</v>
       </c>
       <c r="H164">
         <v>1</v>
@@ -30834,10 +31002,10 @@
     </row>
     <row r="165" spans="1:65">
       <c r="A165" t="s">
-        <v>9</v>
+        <v>65</v>
       </c>
       <c r="B165" t="s">
-        <v>173</v>
+        <v>229</v>
       </c>
       <c r="H165">
         <v>1</v>
@@ -31016,10 +31184,10 @@
     </row>
     <row r="166" spans="1:65">
       <c r="A166" t="s">
-        <v>9</v>
+        <v>65</v>
       </c>
       <c r="B166" t="s">
-        <v>174</v>
+        <v>230</v>
       </c>
       <c r="H166">
         <v>1</v>
@@ -31198,10 +31366,10 @@
     </row>
     <row r="167" spans="1:65">
       <c r="A167" t="s">
-        <v>9</v>
+        <v>65</v>
       </c>
       <c r="B167" t="s">
-        <v>175</v>
+        <v>231</v>
       </c>
       <c r="H167">
         <v>1</v>
@@ -31380,10 +31548,10 @@
     </row>
     <row r="168" spans="1:65">
       <c r="A168" t="s">
-        <v>9</v>
+        <v>65</v>
       </c>
       <c r="B168" t="s">
-        <v>176</v>
+        <v>232</v>
       </c>
       <c r="H168">
         <v>1</v>
@@ -31562,10 +31730,10 @@
     </row>
     <row r="169" spans="1:65">
       <c r="A169" t="s">
-        <v>9</v>
+        <v>65</v>
       </c>
       <c r="B169" t="s">
-        <v>177</v>
+        <v>233</v>
       </c>
       <c r="H169">
         <v>1</v>
@@ -31744,10 +31912,10 @@
     </row>
     <row r="170" spans="1:65">
       <c r="A170" t="s">
-        <v>9</v>
+        <v>65</v>
       </c>
       <c r="B170" t="s">
-        <v>178</v>
+        <v>234</v>
       </c>
       <c r="H170">
         <v>1</v>
@@ -31926,10 +32094,10 @@
     </row>
     <row r="171" spans="1:65">
       <c r="A171" t="s">
-        <v>9</v>
+        <v>65</v>
       </c>
       <c r="B171" t="s">
-        <v>179</v>
+        <v>235</v>
       </c>
       <c r="H171">
         <v>1</v>
@@ -32108,10 +32276,10 @@
     </row>
     <row r="172" spans="1:65">
       <c r="A172" t="s">
-        <v>9</v>
+        <v>65</v>
       </c>
       <c r="B172" t="s">
-        <v>180</v>
+        <v>236</v>
       </c>
       <c r="H172">
         <v>1</v>
@@ -32290,10 +32458,10 @@
     </row>
     <row r="173" spans="1:65">
       <c r="A173" t="s">
-        <v>9</v>
+        <v>65</v>
       </c>
       <c r="B173" t="s">
-        <v>181</v>
+        <v>237</v>
       </c>
       <c r="H173">
         <v>1</v>
@@ -32472,10 +32640,10 @@
     </row>
     <row r="174" spans="1:65">
       <c r="A174" t="s">
-        <v>9</v>
+        <v>65</v>
       </c>
       <c r="B174" t="s">
-        <v>182</v>
+        <v>238</v>
       </c>
       <c r="H174">
         <v>1</v>
@@ -32654,10 +32822,10 @@
     </row>
     <row r="175" spans="1:65">
       <c r="A175" t="s">
-        <v>9</v>
+        <v>65</v>
       </c>
       <c r="B175" t="s">
-        <v>183</v>
+        <v>239</v>
       </c>
       <c r="H175">
         <v>1</v>
@@ -32836,10 +33004,10 @@
     </row>
     <row r="176" spans="1:65">
       <c r="A176" t="s">
-        <v>9</v>
+        <v>65</v>
       </c>
       <c r="B176" t="s">
-        <v>184</v>
+        <v>240</v>
       </c>
       <c r="H176">
         <v>1</v>
@@ -33018,10 +33186,10 @@
     </row>
     <row r="177" spans="1:65">
       <c r="A177" t="s">
-        <v>9</v>
+        <v>65</v>
       </c>
       <c r="B177" t="s">
-        <v>185</v>
+        <v>241</v>
       </c>
       <c r="H177">
         <v>1</v>
@@ -33200,10 +33368,10 @@
     </row>
     <row r="178" spans="1:65">
       <c r="A178" t="s">
-        <v>9</v>
+        <v>65</v>
       </c>
       <c r="B178" t="s">
-        <v>186</v>
+        <v>242</v>
       </c>
       <c r="H178">
         <v>1</v>
@@ -33382,10 +33550,10 @@
     </row>
     <row r="179" spans="1:65">
       <c r="A179" t="s">
-        <v>9</v>
+        <v>65</v>
       </c>
       <c r="B179" t="s">
-        <v>187</v>
+        <v>243</v>
       </c>
       <c r="H179">
         <v>1</v>
@@ -33564,10 +33732,10 @@
     </row>
     <row r="180" spans="1:65">
       <c r="A180" t="s">
-        <v>9</v>
+        <v>65</v>
       </c>
       <c r="B180" t="s">
-        <v>188</v>
+        <v>244</v>
       </c>
       <c r="H180">
         <v>1</v>
@@ -33746,10 +33914,10 @@
     </row>
     <row r="181" spans="1:65">
       <c r="A181" t="s">
-        <v>9</v>
+        <v>65</v>
       </c>
       <c r="B181" t="s">
-        <v>189</v>
+        <v>245</v>
       </c>
       <c r="H181">
         <v>1</v>
@@ -33928,10 +34096,10 @@
     </row>
     <row r="182" spans="1:65">
       <c r="A182" t="s">
-        <v>9</v>
+        <v>65</v>
       </c>
       <c r="B182" t="s">
-        <v>190</v>
+        <v>246</v>
       </c>
       <c r="H182">
         <v>1</v>
@@ -34110,10 +34278,10 @@
     </row>
     <row r="183" spans="1:65">
       <c r="A183" t="s">
-        <v>9</v>
+        <v>65</v>
       </c>
       <c r="B183" t="s">
-        <v>191</v>
+        <v>247</v>
       </c>
       <c r="H183">
         <v>1</v>
@@ -34292,10 +34460,10 @@
     </row>
     <row r="184" spans="1:65">
       <c r="A184" t="s">
-        <v>9</v>
+        <v>65</v>
       </c>
       <c r="B184" t="s">
-        <v>192</v>
+        <v>248</v>
       </c>
       <c r="H184">
         <v>1</v>
@@ -34474,10 +34642,10 @@
     </row>
     <row r="185" spans="1:65">
       <c r="A185" t="s">
-        <v>9</v>
+        <v>65</v>
       </c>
       <c r="B185" t="s">
-        <v>193</v>
+        <v>249</v>
       </c>
       <c r="H185">
         <v>1</v>
@@ -34656,10 +34824,10 @@
     </row>
     <row r="186" spans="1:65">
       <c r="A186" t="s">
-        <v>9</v>
+        <v>65</v>
       </c>
       <c r="B186" t="s">
-        <v>194</v>
+        <v>250</v>
       </c>
       <c r="H186">
         <v>1</v>
@@ -34838,10 +35006,10 @@
     </row>
     <row r="187" spans="1:65">
       <c r="A187" t="s">
-        <v>9</v>
+        <v>65</v>
       </c>
       <c r="B187" t="s">
-        <v>195</v>
+        <v>251</v>
       </c>
       <c r="H187">
         <v>1</v>
@@ -35059,181 +35227,181 @@
       <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1">
-        <v>0</v>
-      </c>
-      <c r="K1" s="1">
-        <v>1</v>
-      </c>
-      <c r="L1" s="1">
-        <v>2</v>
-      </c>
-      <c r="M1" s="1">
-        <v>3</v>
-      </c>
-      <c r="N1" s="1">
-        <v>4</v>
-      </c>
-      <c r="O1" s="1">
-        <v>5</v>
-      </c>
-      <c r="P1" s="1">
-        <v>6</v>
-      </c>
-      <c r="Q1" s="1">
-        <v>7</v>
-      </c>
-      <c r="R1" s="1">
-        <v>8</v>
-      </c>
-      <c r="S1" s="1">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="T1" s="1">
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="U1" s="1">
+      <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="V1" s="1">
+      <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="W1" s="1">
+      <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="X1" s="1">
+      <c r="O1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="Y1" s="1">
+      <c r="P1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Z1" s="1">
+      <c r="Q1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="AA1" s="1">
+      <c r="R1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="AB1" s="1">
+      <c r="S1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="AC1" s="1">
+      <c r="T1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="AD1" s="1">
+      <c r="U1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="AE1" s="1">
+      <c r="V1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="AF1" s="1">
+      <c r="W1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="AG1" s="1">
+      <c r="X1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="AH1" s="1">
+      <c r="Y1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="AI1" s="1">
+      <c r="Z1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="AJ1" s="1">
+      <c r="AA1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="AK1" s="1">
+      <c r="AB1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="AL1" s="1">
+      <c r="AC1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="AM1" s="1">
+      <c r="AD1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="AN1" s="1">
+      <c r="AE1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="AO1" s="1">
+      <c r="AF1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="AP1" s="1">
+      <c r="AG1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="AQ1" s="1">
+      <c r="AH1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="AR1" s="1">
+      <c r="AI1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="AS1" s="1">
+      <c r="AJ1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="AT1" s="1">
+      <c r="AK1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="AU1" s="1">
+      <c r="AL1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="AV1" s="1">
+      <c r="AM1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="AW1" s="1">
+      <c r="AN1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="AX1" s="1">
+      <c r="AO1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="AY1" s="1">
+      <c r="AP1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="AZ1" s="1">
+      <c r="AQ1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="BA1" s="1">
+      <c r="AR1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="BB1" s="1">
+      <c r="AS1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="BC1" s="1">
+      <c r="AT1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="BD1" s="1">
+      <c r="AU1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="BE1" s="1">
+      <c r="AV1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="BF1" s="1">
+      <c r="AW1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="BG1" s="1">
+      <c r="AX1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="BH1" s="1">
+      <c r="AY1" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="BI1" s="1">
+      <c r="AZ1" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="BJ1" s="1">
+      <c r="BA1" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="BK1" s="1">
+      <c r="BB1" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="BL1" s="1">
+      <c r="BC1" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="BM1" s="1">
+      <c r="BD1" s="1" t="s">
         <v>55</v>
+      </c>
+      <c r="BE1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BF1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BG1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BH1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BI1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BJ1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BK1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BL1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BM1" s="1" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="2" spans="1:65">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>65</v>
       </c>
       <c r="B2" t="s">
-        <v>12</v>
+        <v>68</v>
       </c>
       <c r="H2">
         <v>1.5</v>
@@ -35412,10 +35580,10 @@
     </row>
     <row r="3" spans="1:65">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>65</v>
       </c>
       <c r="B3" t="s">
-        <v>13</v>
+        <v>69</v>
       </c>
       <c r="H3">
         <v>1.5</v>
@@ -35594,10 +35762,10 @@
     </row>
     <row r="4" spans="1:65">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>65</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
+        <v>70</v>
       </c>
       <c r="H4">
         <v>1.5</v>
@@ -35776,10 +35944,10 @@
     </row>
     <row r="5" spans="1:65">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>65</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
+        <v>71</v>
       </c>
       <c r="H5">
         <v>1.5</v>
@@ -35958,10 +36126,10 @@
     </row>
     <row r="6" spans="1:65">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>65</v>
       </c>
       <c r="B6" t="s">
-        <v>16</v>
+        <v>72</v>
       </c>
       <c r="H6">
         <v>1.5</v>
@@ -36140,10 +36308,10 @@
     </row>
     <row r="7" spans="1:65">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>65</v>
       </c>
       <c r="B7" t="s">
-        <v>17</v>
+        <v>73</v>
       </c>
       <c r="H7">
         <v>1.5</v>
@@ -36322,10 +36490,10 @@
     </row>
     <row r="8" spans="1:65">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>65</v>
       </c>
       <c r="B8" t="s">
-        <v>18</v>
+        <v>74</v>
       </c>
       <c r="H8">
         <v>1.5</v>
@@ -36504,10 +36672,10 @@
     </row>
     <row r="9" spans="1:65">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>65</v>
       </c>
       <c r="B9" t="s">
-        <v>19</v>
+        <v>75</v>
       </c>
       <c r="H9">
         <v>1.5</v>
@@ -36686,10 +36854,10 @@
     </row>
     <row r="10" spans="1:65">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>65</v>
       </c>
       <c r="B10" t="s">
-        <v>20</v>
+        <v>76</v>
       </c>
       <c r="H10">
         <v>1.5</v>
@@ -36868,10 +37036,10 @@
     </row>
     <row r="11" spans="1:65">
       <c r="A11" t="s">
-        <v>9</v>
+        <v>65</v>
       </c>
       <c r="B11" t="s">
-        <v>21</v>
+        <v>77</v>
       </c>
       <c r="H11">
         <v>1.5</v>
@@ -37050,10 +37218,10 @@
     </row>
     <row r="12" spans="1:65">
       <c r="A12" t="s">
-        <v>9</v>
+        <v>65</v>
       </c>
       <c r="B12" t="s">
-        <v>22</v>
+        <v>78</v>
       </c>
       <c r="H12">
         <v>1.5</v>
@@ -37232,10 +37400,10 @@
     </row>
     <row r="13" spans="1:65">
       <c r="A13" t="s">
-        <v>9</v>
+        <v>65</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>79</v>
       </c>
       <c r="H13">
         <v>1.5</v>
@@ -37414,10 +37582,10 @@
     </row>
     <row r="14" spans="1:65">
       <c r="A14" t="s">
-        <v>9</v>
+        <v>65</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>80</v>
       </c>
       <c r="H14">
         <v>1.5</v>
@@ -37596,10 +37764,10 @@
     </row>
     <row r="15" spans="1:65">
       <c r="A15" t="s">
-        <v>9</v>
+        <v>65</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>81</v>
       </c>
       <c r="H15">
         <v>1.5</v>
@@ -37778,10 +37946,10 @@
     </row>
     <row r="16" spans="1:65">
       <c r="A16" t="s">
-        <v>9</v>
+        <v>65</v>
       </c>
       <c r="B16" t="s">
-        <v>26</v>
+        <v>82</v>
       </c>
       <c r="H16">
         <v>1.5</v>
@@ -37960,10 +38128,10 @@
     </row>
     <row r="17" spans="1:65">
       <c r="A17" t="s">
-        <v>9</v>
+        <v>65</v>
       </c>
       <c r="B17" t="s">
-        <v>27</v>
+        <v>83</v>
       </c>
       <c r="H17">
         <v>1.5</v>
@@ -38142,10 +38310,10 @@
     </row>
     <row r="18" spans="1:65">
       <c r="A18" t="s">
-        <v>9</v>
+        <v>65</v>
       </c>
       <c r="B18" t="s">
-        <v>28</v>
+        <v>84</v>
       </c>
       <c r="H18">
         <v>1.5</v>
@@ -38324,10 +38492,10 @@
     </row>
     <row r="19" spans="1:65">
       <c r="A19" t="s">
-        <v>9</v>
+        <v>65</v>
       </c>
       <c r="B19" t="s">
-        <v>29</v>
+        <v>85</v>
       </c>
       <c r="H19">
         <v>1.5</v>
@@ -38506,10 +38674,10 @@
     </row>
     <row r="20" spans="1:65">
       <c r="A20" t="s">
-        <v>9</v>
+        <v>65</v>
       </c>
       <c r="B20" t="s">
-        <v>30</v>
+        <v>86</v>
       </c>
       <c r="H20">
         <v>1.5</v>
@@ -38688,10 +38856,10 @@
     </row>
     <row r="21" spans="1:65">
       <c r="A21" t="s">
-        <v>9</v>
+        <v>65</v>
       </c>
       <c r="B21" t="s">
-        <v>31</v>
+        <v>87</v>
       </c>
       <c r="H21">
         <v>1.5</v>
@@ -38870,10 +39038,10 @@
     </row>
     <row r="22" spans="1:65">
       <c r="A22" t="s">
-        <v>9</v>
+        <v>65</v>
       </c>
       <c r="B22" t="s">
-        <v>52</v>
+        <v>108</v>
       </c>
       <c r="H22">
         <v>1</v>
@@ -39052,10 +39220,10 @@
     </row>
     <row r="23" spans="1:65">
       <c r="A23" t="s">
-        <v>9</v>
+        <v>65</v>
       </c>
       <c r="B23" t="s">
-        <v>57</v>
+        <v>113</v>
       </c>
       <c r="H23">
         <v>1</v>
@@ -39234,10 +39402,10 @@
     </row>
     <row r="24" spans="1:65">
       <c r="A24" t="s">
-        <v>9</v>
+        <v>65</v>
       </c>
       <c r="B24" t="s">
-        <v>96</v>
+        <v>152</v>
       </c>
       <c r="H24">
         <v>1</v>
@@ -39416,10 +39584,10 @@
     </row>
     <row r="25" spans="1:65">
       <c r="A25" t="s">
-        <v>9</v>
+        <v>65</v>
       </c>
       <c r="B25" t="s">
-        <v>97</v>
+        <v>153</v>
       </c>
       <c r="H25">
         <v>1</v>
@@ -39598,10 +39766,10 @@
     </row>
     <row r="26" spans="1:65">
       <c r="A26" t="s">
-        <v>9</v>
+        <v>65</v>
       </c>
       <c r="B26" t="s">
-        <v>98</v>
+        <v>154</v>
       </c>
       <c r="H26">
         <v>1</v>
@@ -39780,10 +39948,10 @@
     </row>
     <row r="27" spans="1:65">
       <c r="A27" t="s">
-        <v>9</v>
+        <v>65</v>
       </c>
       <c r="B27" t="s">
-        <v>122</v>
+        <v>178</v>
       </c>
       <c r="H27">
         <v>1</v>
@@ -39962,10 +40130,10 @@
     </row>
     <row r="28" spans="1:65">
       <c r="A28" t="s">
-        <v>9</v>
+        <v>65</v>
       </c>
       <c r="B28" t="s">
-        <v>123</v>
+        <v>179</v>
       </c>
       <c r="H28">
         <v>1</v>
@@ -40144,10 +40312,10 @@
     </row>
     <row r="29" spans="1:65">
       <c r="A29" t="s">
-        <v>9</v>
+        <v>65</v>
       </c>
       <c r="B29" t="s">
-        <v>124</v>
+        <v>180</v>
       </c>
       <c r="H29">
         <v>1</v>
@@ -40326,10 +40494,10 @@
     </row>
     <row r="30" spans="1:65">
       <c r="A30" t="s">
-        <v>9</v>
+        <v>65</v>
       </c>
       <c r="B30" t="s">
-        <v>127</v>
+        <v>183</v>
       </c>
       <c r="H30">
         <v>1</v>
@@ -40508,10 +40676,10 @@
     </row>
     <row r="31" spans="1:65">
       <c r="A31" t="s">
-        <v>9</v>
+        <v>65</v>
       </c>
       <c r="B31" t="s">
-        <v>128</v>
+        <v>184</v>
       </c>
       <c r="H31">
         <v>1</v>
@@ -40690,10 +40858,10 @@
     </row>
     <row r="32" spans="1:65">
       <c r="A32" t="s">
-        <v>9</v>
+        <v>65</v>
       </c>
       <c r="B32" t="s">
-        <v>129</v>
+        <v>185</v>
       </c>
       <c r="H32">
         <v>1</v>
@@ -40872,10 +41040,10 @@
     </row>
     <row r="33" spans="1:65">
       <c r="A33" t="s">
-        <v>9</v>
+        <v>65</v>
       </c>
       <c r="B33" t="s">
-        <v>130</v>
+        <v>186</v>
       </c>
       <c r="H33">
         <v>1</v>
@@ -41054,10 +41222,10 @@
     </row>
     <row r="34" spans="1:65">
       <c r="A34" t="s">
-        <v>9</v>
+        <v>65</v>
       </c>
       <c r="B34" t="s">
-        <v>131</v>
+        <v>187</v>
       </c>
       <c r="H34">
         <v>1</v>
@@ -41236,10 +41404,10 @@
     </row>
     <row r="35" spans="1:65">
       <c r="A35" t="s">
-        <v>9</v>
+        <v>65</v>
       </c>
       <c r="B35" t="s">
-        <v>132</v>
+        <v>188</v>
       </c>
       <c r="H35">
         <v>1</v>
@@ -41418,10 +41586,10 @@
     </row>
     <row r="36" spans="1:65">
       <c r="A36" t="s">
-        <v>9</v>
+        <v>65</v>
       </c>
       <c r="B36" t="s">
-        <v>133</v>
+        <v>189</v>
       </c>
       <c r="H36">
         <v>1</v>
@@ -41600,10 +41768,10 @@
     </row>
     <row r="37" spans="1:65">
       <c r="A37" t="s">
-        <v>9</v>
+        <v>65</v>
       </c>
       <c r="B37" t="s">
-        <v>134</v>
+        <v>190</v>
       </c>
       <c r="H37">
         <v>1</v>
@@ -41821,181 +41989,181 @@
       <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1">
-        <v>0</v>
-      </c>
-      <c r="K1" s="1">
-        <v>1</v>
-      </c>
-      <c r="L1" s="1">
-        <v>2</v>
-      </c>
-      <c r="M1" s="1">
-        <v>3</v>
-      </c>
-      <c r="N1" s="1">
-        <v>4</v>
-      </c>
-      <c r="O1" s="1">
-        <v>5</v>
-      </c>
-      <c r="P1" s="1">
-        <v>6</v>
-      </c>
-      <c r="Q1" s="1">
-        <v>7</v>
-      </c>
-      <c r="R1" s="1">
-        <v>8</v>
-      </c>
-      <c r="S1" s="1">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="T1" s="1">
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="U1" s="1">
+      <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="V1" s="1">
+      <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="W1" s="1">
+      <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="X1" s="1">
+      <c r="O1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="Y1" s="1">
+      <c r="P1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Z1" s="1">
+      <c r="Q1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="AA1" s="1">
+      <c r="R1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="AB1" s="1">
+      <c r="S1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="AC1" s="1">
+      <c r="T1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="AD1" s="1">
+      <c r="U1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="AE1" s="1">
+      <c r="V1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="AF1" s="1">
+      <c r="W1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="AG1" s="1">
+      <c r="X1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="AH1" s="1">
+      <c r="Y1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="AI1" s="1">
+      <c r="Z1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="AJ1" s="1">
+      <c r="AA1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="AK1" s="1">
+      <c r="AB1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="AL1" s="1">
+      <c r="AC1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="AM1" s="1">
+      <c r="AD1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="AN1" s="1">
+      <c r="AE1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="AO1" s="1">
+      <c r="AF1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="AP1" s="1">
+      <c r="AG1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="AQ1" s="1">
+      <c r="AH1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="AR1" s="1">
+      <c r="AI1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="AS1" s="1">
+      <c r="AJ1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="AT1" s="1">
+      <c r="AK1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="AU1" s="1">
+      <c r="AL1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="AV1" s="1">
+      <c r="AM1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="AW1" s="1">
+      <c r="AN1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="AX1" s="1">
+      <c r="AO1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="AY1" s="1">
+      <c r="AP1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="AZ1" s="1">
+      <c r="AQ1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="BA1" s="1">
+      <c r="AR1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="BB1" s="1">
+      <c r="AS1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="BC1" s="1">
+      <c r="AT1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="BD1" s="1">
+      <c r="AU1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="BE1" s="1">
+      <c r="AV1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="BF1" s="1">
+      <c r="AW1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="BG1" s="1">
+      <c r="AX1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="BH1" s="1">
+      <c r="AY1" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="BI1" s="1">
+      <c r="AZ1" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="BJ1" s="1">
+      <c r="BA1" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="BK1" s="1">
+      <c r="BB1" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="BL1" s="1">
+      <c r="BC1" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="BM1" s="1">
+      <c r="BD1" s="1" t="s">
         <v>55</v>
+      </c>
+      <c r="BE1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BF1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BG1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BH1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BI1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BJ1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BK1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BL1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BM1" s="1" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="2" spans="1:65">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>65</v>
       </c>
       <c r="B2" t="s">
-        <v>12</v>
+        <v>68</v>
       </c>
       <c r="H2">
         <v>1.5</v>
@@ -42174,10 +42342,10 @@
     </row>
     <row r="3" spans="1:65">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>65</v>
       </c>
       <c r="B3" t="s">
-        <v>13</v>
+        <v>69</v>
       </c>
       <c r="H3">
         <v>1.5</v>
@@ -42356,10 +42524,10 @@
     </row>
     <row r="4" spans="1:65">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>65</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
+        <v>70</v>
       </c>
       <c r="H4">
         <v>1.5</v>
@@ -42538,10 +42706,10 @@
     </row>
     <row r="5" spans="1:65">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>65</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
+        <v>71</v>
       </c>
       <c r="H5">
         <v>1.5</v>
@@ -42720,10 +42888,10 @@
     </row>
     <row r="6" spans="1:65">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>65</v>
       </c>
       <c r="B6" t="s">
-        <v>16</v>
+        <v>72</v>
       </c>
       <c r="H6">
         <v>1.5</v>
@@ -42902,10 +43070,10 @@
     </row>
     <row r="7" spans="1:65">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>65</v>
       </c>
       <c r="B7" t="s">
-        <v>17</v>
+        <v>73</v>
       </c>
       <c r="H7">
         <v>1.5</v>
@@ -43084,10 +43252,10 @@
     </row>
     <row r="8" spans="1:65">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>65</v>
       </c>
       <c r="B8" t="s">
-        <v>18</v>
+        <v>74</v>
       </c>
       <c r="H8">
         <v>1.5</v>
@@ -43266,10 +43434,10 @@
     </row>
     <row r="9" spans="1:65">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>65</v>
       </c>
       <c r="B9" t="s">
-        <v>19</v>
+        <v>75</v>
       </c>
       <c r="H9">
         <v>1.5</v>
@@ -43448,10 +43616,10 @@
     </row>
     <row r="10" spans="1:65">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>65</v>
       </c>
       <c r="B10" t="s">
-        <v>20</v>
+        <v>76</v>
       </c>
       <c r="H10">
         <v>1.5</v>
@@ -43630,10 +43798,10 @@
     </row>
     <row r="11" spans="1:65">
       <c r="A11" t="s">
-        <v>9</v>
+        <v>65</v>
       </c>
       <c r="B11" t="s">
-        <v>21</v>
+        <v>77</v>
       </c>
       <c r="H11">
         <v>1.5</v>
@@ -43812,10 +43980,10 @@
     </row>
     <row r="12" spans="1:65">
       <c r="A12" t="s">
-        <v>9</v>
+        <v>65</v>
       </c>
       <c r="B12" t="s">
-        <v>22</v>
+        <v>78</v>
       </c>
       <c r="H12">
         <v>1.5</v>
@@ -43994,10 +44162,10 @@
     </row>
     <row r="13" spans="1:65">
       <c r="A13" t="s">
-        <v>9</v>
+        <v>65</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>79</v>
       </c>
       <c r="H13">
         <v>1.5</v>
@@ -44176,10 +44344,10 @@
     </row>
     <row r="14" spans="1:65">
       <c r="A14" t="s">
-        <v>9</v>
+        <v>65</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>80</v>
       </c>
       <c r="H14">
         <v>1.5</v>
@@ -44358,10 +44526,10 @@
     </row>
     <row r="15" spans="1:65">
       <c r="A15" t="s">
-        <v>9</v>
+        <v>65</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>81</v>
       </c>
       <c r="H15">
         <v>1.5</v>
@@ -44540,10 +44708,10 @@
     </row>
     <row r="16" spans="1:65">
       <c r="A16" t="s">
-        <v>9</v>
+        <v>65</v>
       </c>
       <c r="B16" t="s">
-        <v>26</v>
+        <v>82</v>
       </c>
       <c r="H16">
         <v>1.5</v>
@@ -44722,10 +44890,10 @@
     </row>
     <row r="17" spans="1:65">
       <c r="A17" t="s">
-        <v>9</v>
+        <v>65</v>
       </c>
       <c r="B17" t="s">
-        <v>27</v>
+        <v>83</v>
       </c>
       <c r="H17">
         <v>1.5</v>
@@ -44904,10 +45072,10 @@
     </row>
     <row r="18" spans="1:65">
       <c r="A18" t="s">
-        <v>9</v>
+        <v>65</v>
       </c>
       <c r="B18" t="s">
-        <v>28</v>
+        <v>84</v>
       </c>
       <c r="H18">
         <v>1.5</v>
@@ -45086,10 +45254,10 @@
     </row>
     <row r="19" spans="1:65">
       <c r="A19" t="s">
-        <v>9</v>
+        <v>65</v>
       </c>
       <c r="B19" t="s">
-        <v>29</v>
+        <v>85</v>
       </c>
       <c r="H19">
         <v>1.5</v>
@@ -45268,10 +45436,10 @@
     </row>
     <row r="20" spans="1:65">
       <c r="A20" t="s">
-        <v>9</v>
+        <v>65</v>
       </c>
       <c r="B20" t="s">
-        <v>30</v>
+        <v>86</v>
       </c>
       <c r="H20">
         <v>1.5</v>
@@ -45450,10 +45618,10 @@
     </row>
     <row r="21" spans="1:65">
       <c r="A21" t="s">
-        <v>9</v>
+        <v>65</v>
       </c>
       <c r="B21" t="s">
-        <v>31</v>
+        <v>87</v>
       </c>
       <c r="H21">
         <v>1.5</v>
@@ -45632,10 +45800,10 @@
     </row>
     <row r="22" spans="1:65">
       <c r="A22" t="s">
-        <v>9</v>
+        <v>65</v>
       </c>
       <c r="B22" t="s">
-        <v>122</v>
+        <v>178</v>
       </c>
       <c r="H22">
         <v>1</v>
@@ -45853,181 +46021,181 @@
       <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1">
-        <v>0</v>
-      </c>
-      <c r="K1" s="1">
-        <v>1</v>
-      </c>
-      <c r="L1" s="1">
-        <v>2</v>
-      </c>
-      <c r="M1" s="1">
-        <v>3</v>
-      </c>
-      <c r="N1" s="1">
-        <v>4</v>
-      </c>
-      <c r="O1" s="1">
-        <v>5</v>
-      </c>
-      <c r="P1" s="1">
-        <v>6</v>
-      </c>
-      <c r="Q1" s="1">
-        <v>7</v>
-      </c>
-      <c r="R1" s="1">
-        <v>8</v>
-      </c>
-      <c r="S1" s="1">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="T1" s="1">
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="U1" s="1">
+      <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="V1" s="1">
+      <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="W1" s="1">
+      <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="X1" s="1">
+      <c r="O1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="Y1" s="1">
+      <c r="P1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Z1" s="1">
+      <c r="Q1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="AA1" s="1">
+      <c r="R1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="AB1" s="1">
+      <c r="S1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="AC1" s="1">
+      <c r="T1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="AD1" s="1">
+      <c r="U1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="AE1" s="1">
+      <c r="V1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="AF1" s="1">
+      <c r="W1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="AG1" s="1">
+      <c r="X1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="AH1" s="1">
+      <c r="Y1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="AI1" s="1">
+      <c r="Z1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="AJ1" s="1">
+      <c r="AA1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="AK1" s="1">
+      <c r="AB1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="AL1" s="1">
+      <c r="AC1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="AM1" s="1">
+      <c r="AD1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="AN1" s="1">
+      <c r="AE1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="AO1" s="1">
+      <c r="AF1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="AP1" s="1">
+      <c r="AG1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="AQ1" s="1">
+      <c r="AH1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="AR1" s="1">
+      <c r="AI1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="AS1" s="1">
+      <c r="AJ1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="AT1" s="1">
+      <c r="AK1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="AU1" s="1">
+      <c r="AL1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="AV1" s="1">
+      <c r="AM1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="AW1" s="1">
+      <c r="AN1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="AX1" s="1">
+      <c r="AO1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="AY1" s="1">
+      <c r="AP1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="AZ1" s="1">
+      <c r="AQ1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="BA1" s="1">
+      <c r="AR1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="BB1" s="1">
+      <c r="AS1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="BC1" s="1">
+      <c r="AT1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="BD1" s="1">
+      <c r="AU1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="BE1" s="1">
+      <c r="AV1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="BF1" s="1">
+      <c r="AW1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="BG1" s="1">
+      <c r="AX1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="BH1" s="1">
+      <c r="AY1" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="BI1" s="1">
+      <c r="AZ1" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="BJ1" s="1">
+      <c r="BA1" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="BK1" s="1">
+      <c r="BB1" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="BL1" s="1">
+      <c r="BC1" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="BM1" s="1">
+      <c r="BD1" s="1" t="s">
         <v>55</v>
+      </c>
+      <c r="BE1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BF1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BG1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BH1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BI1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BJ1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BK1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BL1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BM1" s="1" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="2" spans="1:65">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>65</v>
       </c>
       <c r="B2" t="s">
-        <v>12</v>
+        <v>68</v>
       </c>
       <c r="H2">
         <v>1.5</v>
@@ -46206,10 +46374,10 @@
     </row>
     <row r="3" spans="1:65">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>65</v>
       </c>
       <c r="B3" t="s">
-        <v>13</v>
+        <v>69</v>
       </c>
       <c r="H3">
         <v>1.5</v>
@@ -46388,10 +46556,10 @@
     </row>
     <row r="4" spans="1:65">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>65</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
+        <v>70</v>
       </c>
       <c r="H4">
         <v>1.5</v>
@@ -46570,10 +46738,10 @@
     </row>
     <row r="5" spans="1:65">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>65</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
+        <v>71</v>
       </c>
       <c r="H5">
         <v>1.5</v>
@@ -46752,10 +46920,10 @@
     </row>
     <row r="6" spans="1:65">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>65</v>
       </c>
       <c r="B6" t="s">
-        <v>16</v>
+        <v>72</v>
       </c>
       <c r="H6">
         <v>1.5</v>
@@ -46934,10 +47102,10 @@
     </row>
     <row r="7" spans="1:65">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>65</v>
       </c>
       <c r="B7" t="s">
-        <v>17</v>
+        <v>73</v>
       </c>
       <c r="H7">
         <v>1.5</v>
@@ -47116,10 +47284,10 @@
     </row>
     <row r="8" spans="1:65">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>65</v>
       </c>
       <c r="B8" t="s">
-        <v>18</v>
+        <v>74</v>
       </c>
       <c r="H8">
         <v>1.5</v>
@@ -47298,10 +47466,10 @@
     </row>
     <row r="9" spans="1:65">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>65</v>
       </c>
       <c r="B9" t="s">
-        <v>19</v>
+        <v>75</v>
       </c>
       <c r="H9">
         <v>1.5</v>
@@ -47480,10 +47648,10 @@
     </row>
     <row r="10" spans="1:65">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>65</v>
       </c>
       <c r="B10" t="s">
-        <v>20</v>
+        <v>76</v>
       </c>
       <c r="H10">
         <v>1.5</v>
@@ -47662,10 +47830,10 @@
     </row>
     <row r="11" spans="1:65">
       <c r="A11" t="s">
-        <v>9</v>
+        <v>65</v>
       </c>
       <c r="B11" t="s">
-        <v>21</v>
+        <v>77</v>
       </c>
       <c r="H11">
         <v>1.5</v>
@@ -47844,10 +48012,10 @@
     </row>
     <row r="12" spans="1:65">
       <c r="A12" t="s">
-        <v>9</v>
+        <v>65</v>
       </c>
       <c r="B12" t="s">
-        <v>22</v>
+        <v>78</v>
       </c>
       <c r="H12">
         <v>1.5</v>
@@ -48026,10 +48194,10 @@
     </row>
     <row r="13" spans="1:65">
       <c r="A13" t="s">
-        <v>9</v>
+        <v>65</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>79</v>
       </c>
       <c r="H13">
         <v>1.5</v>
@@ -48208,10 +48376,10 @@
     </row>
     <row r="14" spans="1:65">
       <c r="A14" t="s">
-        <v>9</v>
+        <v>65</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>80</v>
       </c>
       <c r="H14">
         <v>1.5</v>
@@ -48390,10 +48558,10 @@
     </row>
     <row r="15" spans="1:65">
       <c r="A15" t="s">
-        <v>9</v>
+        <v>65</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>81</v>
       </c>
       <c r="H15">
         <v>1.5</v>
@@ -48572,10 +48740,10 @@
     </row>
     <row r="16" spans="1:65">
       <c r="A16" t="s">
-        <v>9</v>
+        <v>65</v>
       </c>
       <c r="B16" t="s">
-        <v>26</v>
+        <v>82</v>
       </c>
       <c r="H16">
         <v>1.5</v>
@@ -48754,10 +48922,10 @@
     </row>
     <row r="17" spans="1:65">
       <c r="A17" t="s">
-        <v>9</v>
+        <v>65</v>
       </c>
       <c r="B17" t="s">
-        <v>27</v>
+        <v>83</v>
       </c>
       <c r="H17">
         <v>1.5</v>
@@ -48936,10 +49104,10 @@
     </row>
     <row r="18" spans="1:65">
       <c r="A18" t="s">
-        <v>9</v>
+        <v>65</v>
       </c>
       <c r="B18" t="s">
-        <v>28</v>
+        <v>84</v>
       </c>
       <c r="H18">
         <v>1.5</v>
@@ -49118,10 +49286,10 @@
     </row>
     <row r="19" spans="1:65">
       <c r="A19" t="s">
-        <v>9</v>
+        <v>65</v>
       </c>
       <c r="B19" t="s">
-        <v>29</v>
+        <v>85</v>
       </c>
       <c r="H19">
         <v>1.5</v>
@@ -49300,10 +49468,10 @@
     </row>
     <row r="20" spans="1:65">
       <c r="A20" t="s">
-        <v>9</v>
+        <v>65</v>
       </c>
       <c r="B20" t="s">
-        <v>30</v>
+        <v>86</v>
       </c>
       <c r="H20">
         <v>1.5</v>
@@ -49482,10 +49650,10 @@
     </row>
     <row r="21" spans="1:65">
       <c r="A21" t="s">
-        <v>9</v>
+        <v>65</v>
       </c>
       <c r="B21" t="s">
-        <v>31</v>
+        <v>87</v>
       </c>
       <c r="H21">
         <v>1.5</v>
@@ -49664,10 +49832,10 @@
     </row>
     <row r="22" spans="1:65">
       <c r="A22" t="s">
-        <v>9</v>
+        <v>65</v>
       </c>
       <c r="B22" t="s">
-        <v>52</v>
+        <v>108</v>
       </c>
       <c r="H22">
         <v>1</v>
@@ -49846,10 +50014,10 @@
     </row>
     <row r="23" spans="1:65">
       <c r="A23" t="s">
-        <v>9</v>
+        <v>65</v>
       </c>
       <c r="B23" t="s">
-        <v>57</v>
+        <v>113</v>
       </c>
       <c r="H23">
         <v>1</v>
@@ -50028,10 +50196,10 @@
     </row>
     <row r="24" spans="1:65">
       <c r="A24" t="s">
-        <v>9</v>
+        <v>65</v>
       </c>
       <c r="B24" t="s">
-        <v>96</v>
+        <v>152</v>
       </c>
       <c r="H24">
         <v>1</v>
@@ -50210,10 +50378,10 @@
     </row>
     <row r="25" spans="1:65">
       <c r="A25" t="s">
-        <v>9</v>
+        <v>65</v>
       </c>
       <c r="B25" t="s">
-        <v>97</v>
+        <v>153</v>
       </c>
       <c r="H25">
         <v>1</v>
@@ -50392,10 +50560,10 @@
     </row>
     <row r="26" spans="1:65">
       <c r="A26" t="s">
-        <v>9</v>
+        <v>65</v>
       </c>
       <c r="B26" t="s">
-        <v>98</v>
+        <v>154</v>
       </c>
       <c r="H26">
         <v>1</v>
@@ -50574,10 +50742,10 @@
     </row>
     <row r="27" spans="1:65">
       <c r="A27" t="s">
-        <v>9</v>
+        <v>65</v>
       </c>
       <c r="B27" t="s">
-        <v>122</v>
+        <v>178</v>
       </c>
       <c r="H27">
         <v>1</v>
@@ -50756,10 +50924,10 @@
     </row>
     <row r="28" spans="1:65">
       <c r="A28" t="s">
-        <v>9</v>
+        <v>65</v>
       </c>
       <c r="B28" t="s">
-        <v>123</v>
+        <v>179</v>
       </c>
       <c r="H28">
         <v>1</v>
@@ -50938,10 +51106,10 @@
     </row>
     <row r="29" spans="1:65">
       <c r="A29" t="s">
-        <v>9</v>
+        <v>65</v>
       </c>
       <c r="B29" t="s">
-        <v>124</v>
+        <v>180</v>
       </c>
       <c r="H29">
         <v>1</v>
@@ -51120,10 +51288,10 @@
     </row>
     <row r="30" spans="1:65">
       <c r="A30" t="s">
-        <v>9</v>
+        <v>65</v>
       </c>
       <c r="B30" t="s">
-        <v>127</v>
+        <v>183</v>
       </c>
       <c r="H30">
         <v>1</v>
@@ -51302,10 +51470,10 @@
     </row>
     <row r="31" spans="1:65">
       <c r="A31" t="s">
-        <v>9</v>
+        <v>65</v>
       </c>
       <c r="B31" t="s">
-        <v>128</v>
+        <v>184</v>
       </c>
       <c r="H31">
         <v>1</v>
@@ -51484,10 +51652,10 @@
     </row>
     <row r="32" spans="1:65">
       <c r="A32" t="s">
-        <v>9</v>
+        <v>65</v>
       </c>
       <c r="B32" t="s">
-        <v>129</v>
+        <v>185</v>
       </c>
       <c r="H32">
         <v>1</v>
@@ -51666,10 +51834,10 @@
     </row>
     <row r="33" spans="1:65">
       <c r="A33" t="s">
-        <v>9</v>
+        <v>65</v>
       </c>
       <c r="B33" t="s">
-        <v>130</v>
+        <v>186</v>
       </c>
       <c r="H33">
         <v>1</v>
@@ -51848,10 +52016,10 @@
     </row>
     <row r="34" spans="1:65">
       <c r="A34" t="s">
-        <v>9</v>
+        <v>65</v>
       </c>
       <c r="B34" t="s">
-        <v>131</v>
+        <v>187</v>
       </c>
       <c r="H34">
         <v>1</v>
@@ -52030,10 +52198,10 @@
     </row>
     <row r="35" spans="1:65">
       <c r="A35" t="s">
-        <v>9</v>
+        <v>65</v>
       </c>
       <c r="B35" t="s">
-        <v>132</v>
+        <v>188</v>
       </c>
       <c r="H35">
         <v>1</v>
@@ -52212,10 +52380,10 @@
     </row>
     <row r="36" spans="1:65">
       <c r="A36" t="s">
-        <v>9</v>
+        <v>65</v>
       </c>
       <c r="B36" t="s">
-        <v>133</v>
+        <v>189</v>
       </c>
       <c r="H36">
         <v>1</v>
@@ -52394,10 +52562,10 @@
     </row>
     <row r="37" spans="1:65">
       <c r="A37" t="s">
-        <v>9</v>
+        <v>65</v>
       </c>
       <c r="B37" t="s">
-        <v>134</v>
+        <v>190</v>
       </c>
       <c r="H37">
         <v>1</v>
@@ -52615,181 +52783,181 @@
       <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1">
-        <v>0</v>
-      </c>
-      <c r="K1" s="1">
-        <v>1</v>
-      </c>
-      <c r="L1" s="1">
-        <v>2</v>
-      </c>
-      <c r="M1" s="1">
-        <v>3</v>
-      </c>
-      <c r="N1" s="1">
-        <v>4</v>
-      </c>
-      <c r="O1" s="1">
-        <v>5</v>
-      </c>
-      <c r="P1" s="1">
-        <v>6</v>
-      </c>
-      <c r="Q1" s="1">
-        <v>7</v>
-      </c>
-      <c r="R1" s="1">
-        <v>8</v>
-      </c>
-      <c r="S1" s="1">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="T1" s="1">
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="U1" s="1">
+      <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="V1" s="1">
+      <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="W1" s="1">
+      <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="X1" s="1">
+      <c r="O1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="Y1" s="1">
+      <c r="P1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Z1" s="1">
+      <c r="Q1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="AA1" s="1">
+      <c r="R1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="AB1" s="1">
+      <c r="S1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="AC1" s="1">
+      <c r="T1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="AD1" s="1">
+      <c r="U1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="AE1" s="1">
+      <c r="V1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="AF1" s="1">
+      <c r="W1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="AG1" s="1">
+      <c r="X1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="AH1" s="1">
+      <c r="Y1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="AI1" s="1">
+      <c r="Z1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="AJ1" s="1">
+      <c r="AA1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="AK1" s="1">
+      <c r="AB1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="AL1" s="1">
+      <c r="AC1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="AM1" s="1">
+      <c r="AD1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="AN1" s="1">
+      <c r="AE1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="AO1" s="1">
+      <c r="AF1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="AP1" s="1">
+      <c r="AG1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="AQ1" s="1">
+      <c r="AH1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="AR1" s="1">
+      <c r="AI1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="AS1" s="1">
+      <c r="AJ1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="AT1" s="1">
+      <c r="AK1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="AU1" s="1">
+      <c r="AL1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="AV1" s="1">
+      <c r="AM1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="AW1" s="1">
+      <c r="AN1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="AX1" s="1">
+      <c r="AO1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="AY1" s="1">
+      <c r="AP1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="AZ1" s="1">
+      <c r="AQ1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="BA1" s="1">
+      <c r="AR1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="BB1" s="1">
+      <c r="AS1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="BC1" s="1">
+      <c r="AT1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="BD1" s="1">
+      <c r="AU1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="BE1" s="1">
+      <c r="AV1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="BF1" s="1">
+      <c r="AW1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="BG1" s="1">
+      <c r="AX1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="BH1" s="1">
+      <c r="AY1" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="BI1" s="1">
+      <c r="AZ1" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="BJ1" s="1">
+      <c r="BA1" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="BK1" s="1">
+      <c r="BB1" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="BL1" s="1">
+      <c r="BC1" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="BM1" s="1">
+      <c r="BD1" s="1" t="s">
         <v>55</v>
+      </c>
+      <c r="BE1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BF1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BG1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BH1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BI1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BJ1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BK1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BL1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BM1" s="1" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="2" spans="1:65">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>65</v>
       </c>
       <c r="B2" t="s">
-        <v>12</v>
+        <v>68</v>
       </c>
       <c r="H2">
         <v>1.5</v>
@@ -52968,10 +53136,10 @@
     </row>
     <row r="3" spans="1:65">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>65</v>
       </c>
       <c r="B3" t="s">
-        <v>13</v>
+        <v>69</v>
       </c>
       <c r="H3">
         <v>1.5</v>
@@ -53150,10 +53318,10 @@
     </row>
     <row r="4" spans="1:65">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>65</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
+        <v>70</v>
       </c>
       <c r="H4">
         <v>1.5</v>
@@ -53332,10 +53500,10 @@
     </row>
     <row r="5" spans="1:65">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>65</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
+        <v>71</v>
       </c>
       <c r="H5">
         <v>1.5</v>
@@ -53514,10 +53682,10 @@
     </row>
     <row r="6" spans="1:65">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>65</v>
       </c>
       <c r="B6" t="s">
-        <v>16</v>
+        <v>72</v>
       </c>
       <c r="H6">
         <v>1.5</v>
@@ -53696,10 +53864,10 @@
     </row>
     <row r="7" spans="1:65">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>65</v>
       </c>
       <c r="B7" t="s">
-        <v>17</v>
+        <v>73</v>
       </c>
       <c r="H7">
         <v>1.5</v>
@@ -53878,10 +54046,10 @@
     </row>
     <row r="8" spans="1:65">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>65</v>
       </c>
       <c r="B8" t="s">
-        <v>18</v>
+        <v>74</v>
       </c>
       <c r="H8">
         <v>1.5</v>
@@ -54060,10 +54228,10 @@
     </row>
     <row r="9" spans="1:65">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>65</v>
       </c>
       <c r="B9" t="s">
-        <v>19</v>
+        <v>75</v>
       </c>
       <c r="H9">
         <v>1.5</v>
@@ -54242,10 +54410,10 @@
     </row>
     <row r="10" spans="1:65">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>65</v>
       </c>
       <c r="B10" t="s">
-        <v>20</v>
+        <v>76</v>
       </c>
       <c r="H10">
         <v>1.5</v>
@@ -54424,10 +54592,10 @@
     </row>
     <row r="11" spans="1:65">
       <c r="A11" t="s">
-        <v>9</v>
+        <v>65</v>
       </c>
       <c r="B11" t="s">
-        <v>21</v>
+        <v>77</v>
       </c>
       <c r="H11">
         <v>1.5</v>
@@ -54606,10 +54774,10 @@
     </row>
     <row r="12" spans="1:65">
       <c r="A12" t="s">
-        <v>9</v>
+        <v>65</v>
       </c>
       <c r="B12" t="s">
-        <v>22</v>
+        <v>78</v>
       </c>
       <c r="H12">
         <v>1.5</v>
@@ -54788,10 +54956,10 @@
     </row>
     <row r="13" spans="1:65">
       <c r="A13" t="s">
-        <v>9</v>
+        <v>65</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>79</v>
       </c>
       <c r="H13">
         <v>1.5</v>
@@ -54970,10 +55138,10 @@
     </row>
     <row r="14" spans="1:65">
       <c r="A14" t="s">
-        <v>9</v>
+        <v>65</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>80</v>
       </c>
       <c r="H14">
         <v>1.5</v>
@@ -55152,10 +55320,10 @@
     </row>
     <row r="15" spans="1:65">
       <c r="A15" t="s">
-        <v>9</v>
+        <v>65</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>81</v>
       </c>
       <c r="H15">
         <v>1.5</v>
@@ -55334,10 +55502,10 @@
     </row>
     <row r="16" spans="1:65">
       <c r="A16" t="s">
-        <v>9</v>
+        <v>65</v>
       </c>
       <c r="B16" t="s">
-        <v>26</v>
+        <v>82</v>
       </c>
       <c r="H16">
         <v>1.5</v>
@@ -55516,10 +55684,10 @@
     </row>
     <row r="17" spans="1:65">
       <c r="A17" t="s">
-        <v>9</v>
+        <v>65</v>
       </c>
       <c r="B17" t="s">
-        <v>27</v>
+        <v>83</v>
       </c>
       <c r="H17">
         <v>1.5</v>
@@ -55698,10 +55866,10 @@
     </row>
     <row r="18" spans="1:65">
       <c r="A18" t="s">
-        <v>9</v>
+        <v>65</v>
       </c>
       <c r="B18" t="s">
-        <v>28</v>
+        <v>84</v>
       </c>
       <c r="H18">
         <v>1.5</v>
@@ -55880,10 +56048,10 @@
     </row>
     <row r="19" spans="1:65">
       <c r="A19" t="s">
-        <v>9</v>
+        <v>65</v>
       </c>
       <c r="B19" t="s">
-        <v>29</v>
+        <v>85</v>
       </c>
       <c r="H19">
         <v>1.5</v>
@@ -56062,10 +56230,10 @@
     </row>
     <row r="20" spans="1:65">
       <c r="A20" t="s">
-        <v>9</v>
+        <v>65</v>
       </c>
       <c r="B20" t="s">
-        <v>30</v>
+        <v>86</v>
       </c>
       <c r="H20">
         <v>1.5</v>
@@ -56244,10 +56412,10 @@
     </row>
     <row r="21" spans="1:65">
       <c r="A21" t="s">
-        <v>9</v>
+        <v>65</v>
       </c>
       <c r="B21" t="s">
-        <v>31</v>
+        <v>87</v>
       </c>
       <c r="H21">
         <v>1.5</v>
@@ -56426,10 +56594,10 @@
     </row>
     <row r="22" spans="1:65">
       <c r="A22" t="s">
-        <v>9</v>
+        <v>65</v>
       </c>
       <c r="B22" t="s">
-        <v>122</v>
+        <v>178</v>
       </c>
       <c r="H22">
         <v>1</v>
